--- a/generated/dataset_mixtral_recursivecharactertext_bert.xlsx
+++ b/generated/dataset_mixtral_recursivecharactertext_bert.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="273">
   <si>
     <t>question</t>
   </si>
@@ -25,7 +25,7 @@
     <t>answer</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST]List, as bullet points, all findings in relation to your specific area of expertise and focus. 
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
 &lt;/s&gt;
 [INST]  
 Keep your answer grounded in the facts of the contexts. 
@@ -45,6 +45,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
 &lt;/s&gt;
 [INST]  
@@ -55,17 +65,117 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST]List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST]List, as bullet points, all findings in relation to your specific area of expertise and focus. 
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Attaining favorable protection environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Realizing rights in safe environments---: i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Empowering communities and achieving gender equality--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
 &lt;/s&gt;
 [INST]  
 Keep your answer grounded in the facts of the contexts. 
@@ -85,6 +195,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
 &lt;/s&gt;
 [INST]  
@@ -95,17 +215,67 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST]List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST]List, as bullet points, all findings in relation to your specific area of expertise and focus. 
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the Strategic Impact: ---Securing durable solutions--- : i.e., finding or recommendations that require a change in existing policy and regulations. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: ---Access to territory registration and documentation ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
 &lt;/s&gt;
 [INST]  
 Keep your answer grounded in the facts of the contexts. 
@@ -125,6 +295,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
 &lt;/s&gt;
 [INST]  
@@ -135,175 +315,1674 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST]List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]List, as bullet points, all findings in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
-&lt;/s&gt;
-[INST]  
-Keep your answer grounded in the facts of the contexts. 
-If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
-Be concise in the response and  when relevant include precise citations from the contexts. 
-[/INST] 
-</t>
-  </si>
-  <si>
-    <t>['impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities']</t>
-  </si>
-  <si>
-    <t>['40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities']</t>
-  </si>
-  <si>
-    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
-  </si>
-  <si>
-    <t>['impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'f) Be explicitly designed to address the key evaluation questions – taking into account evaluability, budget \nand timing constraints.  \n \n25. The evaluation team is responsible to gather, analyze  and triangulate data (e.g. across ty pes, sources and \nanalysis modality) to demonstrate impartiality of the analysis, minimize  bias, and ensure the credibility of \nevaluation findings and conclusions.  \n4.4 Evaluation quality assurance  \n26. The evaluation consultants are required to sign the UNHCR Code of Conduct, complete UNHCR’s \nintroductory protection training module, and respect UNHCR’s confidentiality requirements.   \n27. In line with established standards for evaluation in the UN system, and the UN Ethical Guidelines for \nevaluations, evaluation in U NHCR is founded on the inter -connected principles of independence, \nimpartiality, credibility and utility, which in practice call for: protecting sources and data; systematically', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4']</t>
-  </si>
-  <si>
-    <t>['illustrate UNHCR’s practice in each case study, in cluding the stakeholders involved, their roles and \nresponsibilities, data systems, data flows horizontally and vertically, etc. per the OMC.    \n22. In addition, the evaluation should provide a framework of data and information typologies in relation to their \nintended purpose and use (e.g. planning, advocacy, partner management, results -based management, \ndonor reporting, etc.).  This framework should also be able to demonstrate where there are data gaps based \non changes in external and internal requirements.', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
-  </si>
-  <si>
-    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
-  </si>
-  <si>
-    <t>['illustrate UNHCR’s practice in each case study, in cluding the stakeholders involved, their roles and \nresponsibilities, data systems, data flows horizontally and vertically, etc. per the OMC.    \n22. In addition, the evaluation should provide a framework of data and information typologies in relation to their \nintended purpose and use (e.g. planning, advocacy, partner management, results -based management, \ndonor reporting, etc.).  This framework should also be able to demonstrate where there are data gaps based \non changes in external and internal requirements.', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry']</t>
-  </si>
-  <si>
-    <t>['19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry']</t>
-  </si>
-  <si>
-    <t>['illustrate UNHCR’s practice in each case study, in cluding the stakeholders involved, their roles and \nresponsibilities, data systems, data flows horizontally and vertically, etc. per the OMC.    \n22. In addition, the evaluation should provide a framework of data and information typologies in relation to their \nintended purpose and use (e.g. planning, advocacy, partner management, results -based management, \ndonor reporting, etc.).  This framework should also be able to demonstrate where there are data gaps based \non changes in external and internal requirements.', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * Protecting sources and data is crucial for maintaining impartiality and credibility (context paragraph 1).
-* Seeking informed consent systematically is necessary to respect dignity and diversity in evaluations (context paragraph 1).
-* Minimizing risk, harm, and burden upon those participating in the evaluation is essential while maintaining integrity (context paragraph 1).
-* The evaluation must adhere to the 'Evaluation Quality Assurance' (EQA) guidance for UNHCR evaluation processes and products (context paragraphs 2, 4, &amp; 28).
-* The Evaluation Manager will provide an orientation on EQA at the start of the evaluation, with support from the UNHCR Evaluation Service as needed (context paragraph 3).
-* Foundational documents to be reviewed include UNHCR's Results Framework and Global Strategic Priorities (context paragraph 6).
-These points are general observations based on the context provided. However, there are no specific findings related to "attaining favorable protection environments" or recommendations that require a change in existing policy and regulations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The context provided does not contain specific information about the root causes for unfavorable protection environments in UNHCR's operations. Therefore, I am unable to provide a fact-based answer to this question.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, I can infer that as a public program evaluation expert for UNHCR with a focus on Strategic Impact: "Attaining favorable protection environments," there are two key takeaways related to accountability and learning from evaluations.
-Firstly, accountability is achieved through assessing and reporting on implementation and results (UNHCR Programme Manual, Chapter 4, June 2017, p.250). In the context of my area of expertise, this implies that regular assessments and evaluations should be conducted to ensure that UNHCR's policies and regulations related to attaining favorable protection environments are being effectively implemented and achieving the desired results. The findings from these evaluations must then be reported to management, who should formally respond to them.
-Secondly, learning is generated by describing and explaining results (UNHCR Programme Manual, Chapter 4, June 2017, p.250). In my specific area of focus, this means that evaluations should not only report on the outcomes of UNHCR's efforts to attain favorable protection environments but also explain why those outcomes occurred. By doing so, insights and pointers for learning can be identified to improve future strategies in other contexts where UNHCR operations face similar opportunities and constraints.
-Therefore, it is crucial to incorporate regular evaluations that assess the implementation and results of policies and regulations related to attaining favorable protection environments, report findings to management, and learn from those findings to inform future strategies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization (SET* Complete by Q4) - Citation: "The evaluation emphasizes that an organization-wide prioritization would be essential to transform data within UNHCR to the asset that it can be. The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. SET* Complete by Q4"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * The evaluation aims to understand UNHCR's current practices around data and information management (IM) in country operations and RRP situations, including securing durable solutions for persons of concern (UNHCR Programme Ma nual, Chapter 4, June 2017, p.250).
-* The evaluation will identify key steps taken by other UN agencies, similar organizations, and thought leaders in data and IM that are applicable to UNHCR's work, including securing durable solutions (KEQ sub-question).
-* The evaluation will prioritize actions based on the evaluation findings of challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage, and management that hinder evidence-informed decision-making for securing durable solutions.
-* The evaluation will provide recommendations to address issues concerning data access, synthesis, and dissemination across various data systems at the country, regional, and HQ offices for securing durable solutions (KEQ sub-question).
-* The methodology includes a case-based evaluation approach to yield rich detail in the selected case studies and RRP situations related to securing durable solutions.
-* The situational analysis will map how other UN agencies, similar organizations, and thought leaders in humanitarian/development sectors are positioning their data and IM strategies for securing durable solutions (KEQ sub-question).
-* The evaluation's purpose is to generate recommendations to improve how the organization collates, collects, cleans, stores, manages, analyzes, disseminates, uses, and coordinates data and information in order to better position UNHCR to carry out its mandate of international protection, humanitarian assistance, and permanent solutions for persons of concern (KEQ sub-question).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, I cannot directly identify the root causes for the situation related to securing durable solutions as the information is not present in the text. The evaluation focuses on UNHCR's practice around data and how operational data and program implementation, case management, monitoring, and evaluation are collected and/or collated by UNHCR and/or implementing partners in four case studies of UNHCR country/regional operations. There is no information about the root causes for the situation concerning securing durable solutions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, I can infer that as a public program evaluation expert for UNHCR with a focus on strategic impact and securing durable solutions, accountability and learning are crucial elements in my work. The context highlights the importance of assessing and reporting on implementation and results to ensure accountability (UNHCR Programme Manual, Chapter 4 (June 2017), p.250). This means that I would need to regularly evaluate the progress and outcomes of UNHCR's efforts towards securing durable solutions, and report my findings to management.
-Furthermore, describing and explaining results are necessary to generate insights and pointers for learning (UNHCR Programme Manual, Chapter 4 (June 2017), p.250). In other words, I would need to analyze the data collected during evaluations and use it to identify areas where UNHCR's policies and regulations may need to be changed in order to more effectively secure durable solutions for displaced persons.
-However, the context does not provide any specific facts or details related to my area of expertise and focus on securing durable solutions. Therefore, I cannot offer any concrete recommendations or insights based solely on this information.
-In conclusion, while the provided context highlights the importance of accountability and learning in UNHCR's work, it does not contain enough specific information for me to provide recommendations related to my area of expertise and focus on securing durable solutions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations made directly related to my area of expertise and focus, which is "Securing durable solutions" for finding or recommending changes in existing policy and regulations. The evaluation focuses on UNHCR's practice around data collection, program implementation, case management, monitoring, and evaluation in four case studies of country/regional operations.
-As per the context:
-• KEQ 1 is about examining UNHCR’s practice around operational data and how it is collected and collated by UNHCR and/or implementing partners (no direct relation to durable solutions).
-• The focus of the evaluation is on UNHCR's practices, not specifically addressing policy or regulation changes.
-Therefore, I would answer: {NONE}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * Operational partners' data collection practices for status determination are within the scope of this evaluation (Context).
-* The evaluation will examine UNHCR's practice around data, including data collected by operational partners for determining status determination requirements (Context).
-* Four case studies of UNHCR country/regional operations will be used to evaluate operational data and program implementation, including status determination (Context).
-* Recommendations and findings related to the improvement of status determination practices will be a result of this evaluation (Implied from the context as it falls under the scope of the evaluation). 
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Status determination ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Protection policy and law---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Gender-based violence ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Child protection ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Safety and access to justice ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Community engagement and women's empowerment ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Well-being and basic needs ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Sustainable housing and settlements ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Healthy lives---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Education ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Clean water sanitation and hygiene ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Self-reliance, Economic inclusion, and livelihoods ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Voluntary repatriation and sustainable reintegration ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Resettlement and complementary pathways---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on the specific Operational Outcome: --- Local integration and other local solutions ---, i.e. finding or recommendations that require a change that needs to be implemented in the field as an adaptation or change of current activities. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Systems and processes Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST]&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Operational support and supply chain Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on People and culture Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on External engagement and resource mobilization Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all findings and evidences in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the root causes for the situation. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what are the main risks and difficulties here described. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] Explain, in relation to your specific area of expertise and focus, what what can be learnt. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;s&gt; [INST] Instructions: Act as a public program evaluation expert working for UNHCR. Your specific area of expertise and focus is strictly on Leadership and governance Organizational Enabler, i.e. elements that require changes in management practices, technical approach, business processes, staffing allocation or capacity building. [/INST] List, as bullet points, all recommendations made in relation to your specific area of expertise and focus. 
+&lt;/s&gt;
+[INST]  
+Keep your answer grounded in the facts of the contexts. 
+If the contexts do not contain the facts to answer the QUESTION, return {NONE} 
+Be concise in the response and  when relevant include precise citations from the contexts. 
+[/INST] 
+</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'Operation and Lebanon Country Operation ); \n\uf0b7 Pakistan (Islamabad Head Office and Peshawar Field O ffice) ; and  \n\uf0b7 Zambia (Lusaka Head Office, Mantapala and Meheba settlements ). \n3.3.4 Case study approach  \n43. UNHCR’s Evaluation Service , in consultation with DPSM and Regional Bureaux, identified three \nunique case studies to inform this evaluation. The case stud ies were selected to represent specific \ncases across the spectrum of challenging contexts  where UNHCR operates . The case studies \nrepresent diverse operations with varying types of population groups, partnerships, commitments, \ntypes of responses, and resources available. These case studies are not meant to be representative \nof all UNHCR operations or data and information management s ystem s. Rather, they are to be used \nto derive learning about UNHCR’s practices in varying contexts, which may be applicable to other \noperations with similar characteristics.  \n \n44. The three case studies are:', 'Operation and Lebanon Country Operation ); \n\uf0b7 Pakistan (Islamabad Head Office and Peshawar Field O ffice) ; and  \n\uf0b7 Zambia (Lusaka Head Office, Mantapala and Meheba settlements ). \n3.3.4 Case study approach  \n43. UNHCR’s Evaluation Service , in consultation with DPSM and Regional Bureaux, identified three \nunique case studies to inform this evaluation. The case stud ies were selected to represent specific \ncases across the spectrum of challenging contexts  where UNHCR operates . The case studies \nrepresent diverse operations with varying types of population groups, partnerships, commitments, \ntypes of responses, and resources available. These case studies are not meant to be representative \nof all UNHCR operations or data and information management s ystem s. Rather, they are to be used \nto derive learning about UNHCR’s practices in varying contexts, which may be applicable to other \noperations with similar characteristics.  \n \n44. The three case studies are:']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and', '40 UNHCR  \n   \nThis KEQ will also seek to answer the following sub-questions:  \n\uf0b7 What key steps have other UN agencies, similar organi zations and thought leaders in data and IM \ntaken that are applicable to UNHCR’s work?  \n\uf0b7 What actions should be prioritized based on the evaluation findings of the primary challenges and \nconstraints that UNHCR operations experience during the process of data collation/collection, cleaning, \nanalysis, storage and management that hinder evidence -informed decision -making?  \n\uf0b7 What should UNHCR do to address issues concerning data access, synthesis and dissemination \nacross various data systems at the country, regional and HQ offices?   \n\uf0b7 Which actions can be implemented more rapidly and which actions require  a higher level of effort and \nresourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', '32 UNHCR  \n  \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n  UNHCR staff generally understand that data related to persons of \nconcern is sensitive and should be protected a nd they are \ncommitted to data protection. However, in the field, certain actions \nand practices are commonplace (e.g. sharing documents \ncontaining sensitive information via email without password or \nencryption protections) and undermine this core organizati onal \nvalue, thereby potentially exposing operational data to privacy \nbreaches and risks for persons of concern.  \n \n   \n \nAlthough UNHCR has a strong \ncommitment and robust policy \nframework on data protection, \nactual practices in the field \ncould be strengthened.  \nUNHCR’s commitments to accountability to affected populations \nare in line with international best practices.  There are examples of \ngood practices in the organization. However, on the whole, a t the \noperational level, there is much more that needs to be done to', '32 UNHCR  \n  \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n \n  UNHCR staff generally understand that data related to persons of \nconcern is sensitive and should be protected a nd they are \ncommitted to data protection. However, in the field, certain actions \nand practices are commonplace (e.g. sharing documents \ncontaining sensitive information via email without password or \nencryption protections) and undermine this core organizati onal \nvalue, thereby potentially exposing operational data to privacy \nbreaches and risks for persons of concern.  \n \n   \n \nAlthough UNHCR has a strong \ncommitment and robust policy \nframework on data protection, \nactual practices in the field \ncould be strengthened.  \nUNHCR’s commitments to accountability to affected populations \nare in line with international best practices.  There are examples of \ngood practices in the organization. However, on the whole, a t the \noperational level, there is much more that needs to be done to']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'Evaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org  \nCassie Yao  – yaoy@unhcr.org', 'Evaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org  \nCassie Yao  – yaoy@unhcr.org']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
+  </si>
+  <si>
+    <t>['Evaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org  \nCassie Yao  – yaoy@unhcr.org', 'Evaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org  \nCassie Yao  – yaoy@unhcr.org', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities']</t>
+  </si>
+  <si>
+    <t>['impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
+  </si>
+  <si>
+    <t>['41 UNHCR  \n b) Employ a mixed -method approach incorporating qualitative and quantitative data collection and \nanalysis tools including the analysis of monitoring data – as available.   \nc) Refer to and make use of relevant internationally agreed evaluation cri teria such as those proposed by \nOECD -DAC and adapted by ALNAP for use in humanitarian evaluations .14  \nd) Refer to and make use of relevant standards analytical frameworks.  \ne) Gather and make use of a wide range of data sources (e.g. key informant interviews, dir ect \nobservations, organi zational documents, monitoring data, mission reports, coordination groups ’ \nmeetings, strategy narratives, and indicator reports) in order to demonstrate impartiality of the analysis, \nminimize  bias, and ensure the credibility of eval uation findings and conclusions.  \nf) Be explicitly designed to address the key evaluation questions – taking into account evaluability, budget \nand timing constraints.', '41 UNHCR  \n b) Employ a mixed -method approach incorporating qualitative and quantitative data collection and \nanalysis tools including the analysis of monitoring data – as available.   \nc) Refer to and make use of relevant internationally agreed evaluation cri teria such as those proposed by \nOECD -DAC and adapted by ALNAP for use in humanitarian evaluations .14  \nd) Refer to and make use of relevant standards analytical frameworks.  \ne) Gather and make use of a wide range of data sources (e.g. key informant interviews, dir ect \nobservations, organi zational documents, monitoring data, mission reports, coordination groups ’ \nmeetings, strategy narratives, and indicator reports) in order to demonstrate impartiality of the analysis, \nminimize  bias, and ensure the credibility of eval uation findings and conclusions.  \nf) Be explicitly designed to address the key evaluation questions – taking into account evaluability, budget \nand timing constraints.', '3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.', '3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.']</t>
+  </si>
+  <si>
+    <t>['3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.', '3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.', '41 UNHCR  \n b) Employ a mixed -method approach incorporating qualitative and quantitative data collection and \nanalysis tools including the analysis of monitoring data – as available.   \nc) Refer to and make use of relevant internationally agreed evaluation cri teria such as those proposed by \nOECD -DAC and adapted by ALNAP for use in humanitarian evaluations .14  \nd) Refer to and make use of relevant standards analytical frameworks.  \ne) Gather and make use of a wide range of data sources (e.g. key informant interviews, dir ect \nobservations, organi zational documents, monitoring data, mission reports, coordination groups ’ \nmeetings, strategy narratives, and indicator reports) in order to demonstrate impartiality of the analysis, \nminimize  bias, and ensure the credibility of eval uation findings and conclusions.  \nf) Be explicitly designed to address the key evaluation questions – taking into account evaluability, budget \nand timing constraints.', '41 UNHCR  \n b) Employ a mixed -method approach incorporating qualitative and quantitative data collection and \nanalysis tools including the analysis of monitoring data – as available.   \nc) Refer to and make use of relevant internationally agreed evaluation cri teria such as those proposed by \nOECD -DAC and adapted by ALNAP for use in humanitarian evaluations .14  \nd) Refer to and make use of relevant standards analytical frameworks.  \ne) Gather and make use of a wide range of data sources (e.g. key informant interviews, dir ect \nobservations, organi zational documents, monitoring data, mission reports, coordination groups ’ \nmeetings, strategy narratives, and indicator reports) in order to demonstrate impartiality of the analysis, \nminimize  bias, and ensure the credibility of eval uation findings and conclusions.  \nf) Be explicitly designed to address the key evaluation questions – taking into account evaluability, budget \nand timing constraints.']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4', '9 UNHCR  \n Recommendat ions \n \nIn the context of UNHCR’s current data and information systems, the internal and external changes it is facing, \nand the needs required to act as a lea der on protection and solutions , the evaluation offers the following \nrecommendations , with additiona l detail and sub -recommendations in the main body of the report : \n \nRecommended actions  Responsible  Anticipated \ntimeframe  \nThe evaluation emphasizes that an organization -wide prioritization \nwould be essential to transform data within UNHCR to the asset that it \ncan be.  \n \nThe evaluation recommends that UNHCR develop a data transformation \nstrategy and roadmap, with key elements such as enforcing data norms \nand standards throughout the organization, cultivating strong data \nleadership, developing systems to integra te and pull data together, \ncreating a data -first culture, and building capacities and confidence \naround statistics and evidence on persons of concern.  \n SET*  Complete by Q4']</t>
+  </si>
+  <si>
+    <t>['impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'Evaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org  \nCassie Yao  – yaoy@unhcr.org', 'Evaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org  \nCassie Yao  – yaoy@unhcr.org']</t>
+  </si>
+  <si>
+    <t>['impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically \nseeking informed consent; respecting dignity and diversity; minimizing  risk, h arm and burden upon those \nwho are the subject of, or participating in the evaluation, while at the same time not compromising the \nintegrity of the exercise.   \n28. The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which \nclarifies the quality requirements expected for UNHCR evaluation processes and products.   \n29. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. \nAdherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation \nService as needed.  \n4.5 Data and information sources  \n30. Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities', 'Evaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org  \nCassie Yao  – yaoy@unhcr.org', 'Evaluation manager / \ncontact in UNHCR:  Christine Fu - fu@unhcr.org   \nSupport staff:  Selam Araya Soum - soum@unhcr.org  \nCassie Yao  – yaoy@unhcr.org']</t>
+  </si>
+  <si>
+    <t>['resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
+  </si>
+  <si>
+    <t>['resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'Operation and Lebanon Country Operation ); \n\uf0b7 Pakistan (Islamabad Head Office and Peshawar Field O ffice) ; and  \n\uf0b7 Zambia (Lusaka Head Office, Mantapala and Meheba settlements ). \n3.3.4 Case study approach  \n43. UNHCR’s Evaluation Service , in consultation with DPSM and Regional Bureaux, identified three \nunique case studies to inform this evaluation. The case stud ies were selected to represent specific \ncases across the spectrum of challenging contexts  where UNHCR operates . The case studies \nrepresent diverse operations with varying types of population groups, partnerships, commitments, \ntypes of responses, and resources available. These case studies are not meant to be representative \nof all UNHCR operations or data and information management s ystem s. Rather, they are to be used \nto derive learning about UNHCR’s practices in varying contexts, which may be applicable to other \noperations with similar characteristics.  \n \n44. The three case studies are:', 'Operation and Lebanon Country Operation ); \n\uf0b7 Pakistan (Islamabad Head Office and Peshawar Field O ffice) ; and  \n\uf0b7 Zambia (Lusaka Head Office, Mantapala and Meheba settlements ). \n3.3.4 Case study approach  \n43. UNHCR’s Evaluation Service , in consultation with DPSM and Regional Bureaux, identified three \nunique case studies to inform this evaluation. The case stud ies were selected to represent specific \ncases across the spectrum of challenging contexts  where UNHCR operates . The case studies \nrepresent diverse operations with varying types of population groups, partnerships, commitments, \ntypes of responses, and resources available. These case studies are not meant to be representative \nof all UNHCR operations or data and information management s ystem s. Rather, they are to be used \nto derive learning about UNHCR’s practices in varying contexts, which may be applicable to other \noperations with similar characteristics.  \n \n44. The three case studies are:']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', '3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.', '3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.']</t>
+  </si>
+  <si>
+    <t>['resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and']</t>
+  </si>
+  <si>
+    <t>['3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.', '3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and']</t>
+  </si>
+  <si>
+    <t>['resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'UNHCR is experiencing. Accordingly, the conclusions and recommendations are appropriately situated \nto provide maximum utility based on the evaluation’s assessment of the future context.  \n \n8. The evaluation employed several key qualitative  methods, including focus group and key informant \ninterviews with over 170 UNHCR staff and partners at various levels of the organi zation, an extensive \ndocument review, direct observation of UNHCR operations and in -depth process mapping of data and \nIM appr oaches and practices  using three case studies. The case studies are ope rations in Pakistan, \nthe Syria r egional refugee r esponse  and Zambia . The case studies were selected to represent specific \ncases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of', 'UNHCR is experiencing. Accordingly, the conclusions and recommendations are appropriately situated \nto provide maximum utility based on the evaluation’s assessment of the future context.  \n \n8. The evaluation employed several key qualitative  methods, including focus group and key informant \ninterviews with over 170 UNHCR staff and partners at various levels of the organi zation, an extensive \ndocument review, direct observation of UNHCR operations and in -depth process mapping of data and \nIM appr oaches and practices  using three case studies. The case studies are ope rations in Pakistan, \nthe Syria r egional refugee r esponse  and Zambia . The case studies were selected to represent specific \ncases across the spectrum of challenging contexts where UNHCR o perates. The case studies represent \ndiverse operations with varying types of population groups, partnerships, commitments, types of']</t>
+  </si>
+  <si>
+    <t>['resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', '3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.', '3.3 Qualitative data  \n3.3.1  Key informant interviews  \n38. The evaluation team conducted a comprehensive set of individual and group key informant interviews \nwith more than 170 people. Interviewees included UNHCR staff members, partners an d other \nstakeholders.  \n \n39. Within UNHCR, the evaluation strived  to ensure that perspectives from across  the organization were \nincluded . The evaluation includes perspectives from the SET, DPSM, DIP, DIST, DER, DRS, and \nDESS. The evaluation connected with indivi duals within these divisions at all levels – HQ, Regional, \nBureaux, country office and field office.  \n \n40. The evaluation also sought, and received, valuable perspectives from UNHCR’s partners in \nimplement ation of  the Syria regional refugee response , and operat ions in Pakistan and Zambia.']</t>
+  </si>
+  <si>
+    <t>['resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', 'resourcing?  \n \n4.3 Approach and methodology   \n18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and \nIM in country operations and RRP situations in order to generate recommendati ons to improve how the \norgani zation collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data \nand information in order to better position UNHCR to carry out its mandate of international protection, \nhumanitarian assistan ce and permanent solutions for persons of concern.   \n19. The methodology should be two -pronged:  1) Utilize  a case -based evaluation approach to yield rich detail in \nthe 4 selected case studies as well as RRP situations; and 2) Situational analysis of changes in the external \nenvironment and internally within UNHCR followed by a landscape mapping of how other UN agencies, \nsimilar organi zation and thought leaders in humanitarian/development sectors are positioning their data and', '42 UNHCR  \n \uf0b7 Refugee Coordination Model and Refugee Response Plans; and \n\uf0b7 Review of UNHCR Policies and Practices: Mass Determination Programs .  \n5. Organi zation, management and conduct of the evaluation  \n31. UNHCR Evaluation Service will serve as the Evaluation Manager . They will be responsible for: (i) managing \nthe day -to-day aspects of the evaluation process; (ii) acting as  the main interlocutor with the evaluation \nteam; (iii) providing the evaluators with required data and facilitating communication with relevant \nstakeholders; (iv) reviewing the interim deliverables and final reports to ensure quality – with the support of \nUNHCR FICSS, RBM and PASS teams at HQ and a Reference Group comprising UNHCR Divisions of \nInternational Protection, Resilience and Solutions, External Relations, Programme Support and \nManagement and the Change Management Team as well as a member state.', '42 UNHCR  \n \uf0b7 Refugee Coordination Model and Refugee Response Plans; and \n\uf0b7 Review of UNHCR Policies and Practices: Mass Determination Programs .  \n5. Organi zation, management and conduct of the evaluation  \n31. UNHCR Evaluation Service will serve as the Evaluation Manager . They will be responsible for: (i) managing \nthe day -to-day aspects of the evaluation process; (ii) acting as  the main interlocutor with the evaluation \nteam; (iii) providing the evaluators with required data and facilitating communication with relevant \nstakeholders; (iv) reviewing the interim deliverables and final reports to ensure quality – with the support of \nUNHCR FICSS, RBM and PASS teams at HQ and a Reference Group comprising UNHCR Divisions of \nInternational Protection, Resilience and Solutions, External Relations, Programme Support and \nManagement and the Change Management Team as well as a member state.']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry']</t>
+  </si>
+  <si>
+    <t>['12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '12 UNHCR Programme Ma nual, Chapter 4 (June 2017), p.250.   \n13 Accountability  – through assessing and reporting on implementation and results, and requesting management to formally respond to \nthe evaluation. Learning  – Describing as well as explaining results is necessary to gen erate insights and pointers for learning to improve \nfuture strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry']</t>
+  </si>
+  <si>
+    <t>['19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', '19 UNHCR  \n  \n2. Purpose , audience  and key areas of inquiry  \n2.1 Purpose  \n30. This evaluation serves a dual and mutually reinforcing learning and accountability purpose: to \ncontribute evidence and recommendations that will inform UNHCR’s IM systems and practice; and \ncontribute to improved capacity for responsible, timely  and purposeful data use and information \nmanagement at various levels within UNHCR, in both its operational and coordination roles.  \n2.2 Audience  \n31. The primary audiences are UNHCR’s Senior Executive Team  (SET) , Regional Bureaux, Division of \nProgramme Support and Management (DPSM), Division of International Protection (DIP), Division of \nInformation Systems and Telecommunications (DIST), Division of External Relations (DER), and \nDivision of Resilience and Solutions (DRS) at Headquarters (HQ). Secondary audiences  are regional \nand country offices.  \n2.3 Key areas of inquiry', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and']</t>
+  </si>
+  <si>
+    <t>['program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', 'program  implementation, case management, m onitoring and evaluation, collected and/or collated by \nUNHCR and/or implementing partners.   \n\uf0b7 This evaluation examines UNHCR’s practice around data, including data collated/collected by \noperational partners when the data and information requirements are dete rmined by UNHCR. Broader \ndata and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this \nevaluation and would entail a joint inter -agency evaluation with the unit of analysis being the Global \nCluster model whilst the fo cus of this evaluation is on UNHCR.     \n4.2 Key Evaluation Questions (KEQs)   \n17. The evaluation will address the following headline questions. The analysis needed to answer them is likely \nto touch on other possible sub -questions and may be further refined d uring the evaluation inception phase.  \n  \nKEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and', '35 UNHCR  \n Annex 1: Terms of Reference  \n \nEvaluation of UNHCR’s data use and information management approaches  \n \nKey Information at glance about the evaluation  \nTitle of the eval uation  Evaluation of UNHCR’s data use and information management approaches  \nTimeframe of evaluation  July 2018 – March 2019  \nType of exercise  Centrali zed evaluation (theory -based)  \nEvaluation commissioned by  UNHCR Evaluation Service  \n \n1. Introduction  \n1. Accu rate, accessible and timely data are necessary for daily project management, policy -making, advocacy \nand coordination. Such data are also needed in every aspect of the operational management cycle  − for \nsituational understanding,  strategy development, prog ram planning, implementation, monitoring and \nevaluation. For data to have strategic value and to be strategically used, UNHCR staff at all levels in the \norgani zation need to create and/or access quality data regarding persons of concern and response activi ties', '35 UNHCR  \n Annex 1: Terms of Reference  \n \nEvaluation of UNHCR’s data use and information management approaches  \n \nKey Information at glance about the evaluation  \nTitle of the eval uation  Evaluation of UNHCR’s data use and information management approaches  \nTimeframe of evaluation  July 2018 – March 2019  \nType of exercise  Centrali zed evaluation (theory -based)  \nEvaluation commissioned by  UNHCR Evaluation Service  \n \n1. Introduction  \n1. Accu rate, accessible and timely data are necessary for daily project management, policy -making, advocacy \nand coordination. Such data are also needed in every aspect of the operational management cycle  − for \nsituational understanding,  strategy development, prog ram planning, implementation, monitoring and \nevaluation. For data to have strategic value and to be strategically used, UNHCR staff at all levels in the \norgani zation need to create and/or access quality data regarding persons of concern and response activi ties']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation examines UNHCR’s practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (context).
+* The evaluation will address the following headline questions: KEQ 1, which focuses on how operational data and program implementation, case management, monitoring and evaluation are collected and/or collated by UNHCR and/or implementing partners in four case studies of UNHCR country/regional operations (context).
+* The evaluation is expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance which clarifies the quality requirements expected for UNHCR evaluation processes and products (context).
+* Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities (context).
+However, there is no specific finding or evidence related to my area of expertise and focus: "Strategic Impact: Attaining favorable protection environments" in the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to identify the root causes for attaining favorable protection environments as the evaluation focuses on UNHCR's data practices in four case studies (Operation and Lebanon Country Operation, Pakistan - Islamabad Head Office and Peshawar Field Office, and Zambia - Lusaka Head Office, Mantapala and Meheba settlements) and does not contain information related to the root causes for attaining favorable protection environments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus are:
+1. The evaluation's scope does not cover UNHCR's broader data and IM practices as a lead agency in the Global Clusters (KEQ 1). This might limit the understanding of how UNHCR's global strategies impact attaining favorable protection environments at the country/regional operations level.
+2. The evaluation will be based on four case studies, which could limit the generalizability and applicability of findings and recommendations to other contexts (KEQ 1).
+3. There is no explicit mention of the involvement or data collection from key stakeholders directly related to my area of expertise, such as refugees, host communities, or local authorities, which might compromise the evaluation's credibility and utility (KEQ 2).
+4. The context does not provide information on whether the evaluation will consider existing policies and regulations or assess their impact on attaining favorable protection environments (Strategic Impact: Attaining favorable protection environments).
+{NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert focusing on attaining favorable protection environments for UNHCR operations, I can learn about the effectiveness of UNHCR's data practices in four case study country/regional operations. The evaluation will analyze how operational data and program implementation, case management, monitoring, and evaluation are managed by UNHCR and implementing partners. However, the context does not explicitly mention any changes in existing policy or regulations related to my area of expertise. Therefore, I can only state that {NONE} specific information regarding required changes in policies or regulations for attaining favorable protection environments is available from this context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations made directly related to my area of expertise and focus, which is "Strategic Impact: Attaining favorable protection environments." The evaluation focuses on UNHCR's data practices in four case studies of country/regional operations. Therefore, I would return {NONE} as the answer to this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (context).
+* The evaluation will examine UNHCR's country/regional operations through four case studies to understand how operational data and program implementation, case management, monitoring and evaluation are conducted (KEQ 1).
+* The evaluation will identify key steps taken by other UN agencies, similar organizations and thought leaders in data and IM that are applicable to UNHCR's work (sub-question under KEQ 1).
+* The evaluation findings will inform prioritization of actions to address the primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage and management that hinder evidence-informed decision-making (sub-question under KEQ 1).
+* The evaluation will provide recommendations on what UNHCR should do to address issues concerning data access, synthesis and dissemination across various data systems at the country, regional and HQ offices (sub-question under KEQ 1).
+* The evaluation will identify which actions can be implemented more rapidly and which actions require a higher level of effort and resourcing (sub-question under KEQ 1).
+Sources:
+* Context
+* Key Evaluation Questions (KEQs)
+* Sub-questions under KEQ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to directly identify the root causes for issues related to realizing rights in safe environments as the evaluation focuses on UNHCR's data practices and not the specific program implementation or policy aspects of Strategic Impact: Realizing rights in safe environments. However, the evaluation does touch upon data-related challenges that may indirectly affect this area.
+One sub-question under KEQ 1 is: "What should UNHCR do to address issues concerning data access, synthesis and dissemination across various data systems at the country, regional and HQ offices?" (Section 4.2) This question highlights potential difficulties in data management that may impact the effectiveness of programs aimed at realizing rights in safe environments. Improving data access, synthesis, and dissemination could potentially lead to better-informed decision-making and more effective implementation of strategies to realize rights in safe environments.
+However, without further information on the specific challenges faced in this area, it is not possible to provide a more concrete answer regarding root causes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context are related to data protection practices in UNHCR's country/regional operations. According to the evaluation, while UNHCR has a strong commitment and robust policy framework on data protection, actual practices in the field could be strengthened (p. 32). Specifically, it is noted that certain actions and practices are commonplace, such as sharing documents containing sensitive information via email without password or encryption protections, which potentially exposes operational data to privacy breaches and risks for persons of concern (p. 31-32). This highlights the need for improvements in implementing data protection policies and practices at the operational level to ensure the safety and rights of persons of concern.
+Reference(s):
+p. 31-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert focusing on "Realizing rights in safe environments," I can learn about UNHCR's data practices related to operational data and resourcing within country/regional operations through four case studies. The evaluation will examine how these practices support the realization of rights and provision of safety for persons of concern.
+The methodology includes a theory-based, retrospective approach with a two-pronged strategy: 1) utilizing a case-based evaluation to gain rich detail in the selected case studies and RRP situations; and 2) conducting a situational analysis of changes in the external environment and internal UNHCR landscape. This will be followed by a mapping of data and resourcing positions taken by other UN agencies, similar organizations, and thought leaders in humanitarian/development sectors (lines 18-20).
+However, there is no explicit mention of policy or regulation changes related to "Realizing rights in safe environments" in the context. Therefore, I can't provide specific insights on this matter based solely on the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the evaluation of UNHCR's data practices in country operations, it is recommended that UNHCR strengthens its guidance and oversight of operational partners for data collection and collation to ensure better realization of rights in safe environments (KEQ 1, para. 17)
+* The evaluation recommends that UNHCR develop a clear policy on data management, including data and information requirements determination, to improve the use of operational data in program implementation for better protection outcomes (para. 4.3)
+* It is suggested that UNHCR conducts regular monitoring and evaluation of its data practices in country operations and RRP situations to ensure continuous improvement in realizing rights in safe environments (KEQ 1, para. 17)
+* The evaluation recommends that UNHCR develop a comprehensive strategy for data resourcing, including capacity building and training for operational partners, to enhance the quality of collected and collated data for better decision-making and realization of rights in safe environments (para. 4.3)
 {None}
-* There is no specific finding or recommendation related to status determination provided in the context.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The context provided does not contain any specific facts or information related to the root causes of issues or challenges with the UNHCR's status determination operational outcome. Therefore, I am unable to provide a response to this question.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, I can infer that as a public program evaluation expert for UNHCR with a focus on status determination, there are two key learning points to consider: accountability and learning.
-Firstly, in relation to accountability, the context highlights the importance of assessing and reporting on implementation and results (UNHCR Programme Manual, Chapter 4 (June 2017), p.250). In the specific context of status determination, this means that it is essential to track and report on the outcomes of status determination processes, including the accuracy and timeliness of decisions made. This information can then be used to request management to formally respond to the evaluation and make any necessary changes to improve the process.
-Secondly, in terms of learning, the context emphasizes the importance of describing and explaining results to generate insights and pointers for improving future strategies (UNHCR Programme Manual, Chapter 4 (June 2017), p.250). In the context of status determination, this means that it is necessary to analyze and report on the factors that contribute to successful or unsuccessful outcomes in order to identify best practices and areas for improvement. This information can then be used to inform future strategies and potentially applied to other contexts where UNHCR operations face similar opportunities and constraints.
-Therefore, as a public program evaluation expert with a focus on status determination, the key learning points from the provided context are to prioritize accountability through assessing and reporting on implementation and results, and to emphasize learning by describing and explaining results to generate insights for improving future strategies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations made directly related to my area of expertise and focus, which is "Status determination". Therefore, I would answer:
+* The context does not provide information on specific policy or regulation changes required to realize rights in safe environments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on UNHCR's practice around data, including data collected and/or collated by operational partners when the data and information requirements are determined by UNHCR (context).
+* The key evaluation question (KEQ 1) examines how operational data and program implementation, case management, monitoring, and evaluation are managed in four case studies of UNHCR country/regional operations (context).
+* The specific area of expertise is "Strategic Impact: Empowering communities and achieving gender equality" (instruction).
+* However, the context does not provide any specific findings or evidence related to empowering communities and achieving gender equality. Therefore, I cannot provide any concrete facts or evidence based on the given context (none).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information available that directly addresses the root causes of the situation related to empowering communities and achieving gender equality. The context mainly focuses on the evaluation of UNHCR's data practices in four case studies of country/regional operations, with a specific focus on operational data and program implementation, case management, monitoring, and evaluation.
+However, it is important to note that understanding the root causes of issues related to empowering communities and achieving gender equality typically requires an analysis of various factors such as societal norms, power dynamics, access to resources, and policies, among others. The context provided does not contain information about these aspects.
+Therefore, based on the given context, I would answer: {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus are as follows:
+1) The evaluation's scope does not cover UNHCR's broader data and Information Management (IM) practices as a lead agency in the Global Clusters. This limitation may pose a risk to understanding how UNHCR, as a whole, empowers communities and achieves gender equality. (Paragraph 2)
+2) The evaluation is focused on four case studies of UNHCR country/regional operations, which may not provide a comprehensive view of the organization's practices in empowering communities and achieving gender equality. This limitation could result in difficulties in making recommendations for change in existing policies and regulations. (KEQ 1)
+3) The key evaluation questions are likely to touch on other possible sub-questions, which may be further refined during the evaluation inception phase. This flexibility may introduce risks related to the focus and scope of the evaluation, particularly regarding my specific area of expertise and focus. (KEQ 1)
+Therefore, these limitations and risks should be taken into account when interpreting the findings and recommendations of this evaluation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to provide a specific recommendation or finding related to empowering communities and achieving gender equality as the evaluation has not been conducted yet. The evaluation will be addressing key questions based on four case studies of UNHCR country/regional operations regarding how operational data and program implementation are managed (UNHCR Programme Manual, Chapter 4, June 2017, p.250). However, the specific findings and recommendations related to empowering communities and achieving gender equality will be determined during the evaluation inception phase and not specified in this context.
+References:
+- UNHCR Programme Manual, Chapter 4 (June 2017), p.250.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * {NONE} - The context provided does not contain any specific recommendations related to empowering communities and achieving gender equality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation examines UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (context).
+* The KEQs of this evaluation include an examination of UNHCR's current practices around data, specifically in relation to securing durable solutions (context).
+* The evaluation will address how operational data and program implementation, case management, monitoring and evaluation are carried out in four case studies of UNHCR country/regional operations (context).
+* The evaluation will also seek to answer the following sub-questions: What actions should be prioritized based on the evaluation findings of the primary challenges and constraints that UNHCR operations experience during the process of data collation/collection, cleaning, analysis, storage and management that hinder evidence-informed decision-making in relation to securing durable solutions (context).
+* The evaluation will also seek to answer what UNHCR should do to address issues concerning data access, synthesis and dissemination across various data systems at the country, regional and HQ offices in relation to securing durable solutions(context)
+* This evaluation is a theory-based, retrospective evaluation (context).
+{NONE} - The contexts provided do not contain specific findings or evidence related to recommendations that require a change in existing policy and regulations for securing durable solutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information regarding the root causes for the situation related to securing durable solutions for finding or recommendations that require a change in existing policy and regulations. Therefore, I am unable to provide an answer to this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties related to my area of expertise, securing durable solutions, are not explicitly described in the provided context. However, there are some potential implications that can be inferred:
+1. Data quality and availability: The evaluation focuses on UNHCR's data practices around operational data and program implementation in country/regional operations (KEQ 1). If the collected and collated data is not accurate, complete, or accessible, it could hinder the ability to make informed policy and regulatory changes for securing durable solutions.
+2. Scope exclusion: The evaluation specifically excludes broader data and Information Management (IM) practices by UNHCR as a lead agency in the Global Clusters. This limitation might result in not capturing critical information related to durable solutions that involve coordination with other global agencies.
+Sources:
+- KEQ 1 description
+- Exclusion of broader data and IM practices from the evaluation scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, I can infer that this evaluation focuses on UNHCR's data practices around operational data and program implementation in four case studies of country/regional operations (KEQ 1). However, there is no direct mention or facts related to my specific area of expertise and focus, which is securing durable solutions, including findings or recommendations that require a change in existing policy and regulations. Therefore, I am unable to provide a substantive answer to the question based on the given contexts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the context provided, there are no specific recommendations made directly related to securing durable solutions for persons of concern in UNHCR's data and information practices.
+* The focus of the evaluation is mainly on understanding UNHCR’s current practices around data and IM (Information Management) in country operations and RRP (Reprogramming Request Process) situations, with the aim to generate recommendations to improve how the organization collates, collects, cleans, stores, manages, analyses, disseminates, uses and coordinates data and information.
+* However, there is no explicit mention of any recommendations that require a change in existing policy and regulations related to securing durable solutions for persons of concern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation examines UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (context).
+* The focus of the evaluation is on UNHCR's role in collecting and collating operational data related to access to territory registration and documentation (implied from context).
+* Four case studies of UNHCR country/regional operations will be used to address how operational data and program implementation, including access to territory registration and documentation, are managed by UNHCR and its implementing partners (KEQ 1 from context).
+* The evaluation aims to provide insights and recommendations for improving future strategies related to access to territory registration and documentation (implied from section 13 of context).
+{NONE}
+* There is no evidence in the provided contexts that speaks directly to findings or recommendations specific to access to territory registration and documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information or facts presented that directly address the root causes related to access to territory registration and documentation. Therefore, I am unable to provide a specific answer to this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, which is "Access to territory registration and documentation", are not directly addressed. The context mainly discusses the evaluation's scope, methodology, and key evaluation questions (KEQs), but it does not mention any specific risks or difficulties related to access to territory registration and documentation. Therefore, I would answer {NONE} for this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it appears that there will be an evaluation of UNHCR's practice around data, specifically focusing on four case studies of country/regional operations. The evaluation will examine how operational data and program implementation, including case management, monitoring and evaluation, are collected and/or collated by UNHCR and/or implementing partners (12 UNHCR Programme Manual, Chapter 4, p.250). The focus is on UNHCR's data practices, rather than its role as a lead agency in the Global Clusters.
+As a public program evaluation expert with a specific area of expertise and focus on "Access to territory registration and documentation", I can say that this evaluation may provide insights into how well UNHCR and its operational partners are collecting, managing, and using data related to registration and documentation processes for displaced persons. The evaluation's findings could potentially identify strengths and weaknesses in current data practices, as well as opportunities for improvement.
+However, the context does not provide specific details about the four case studies or the focus of the evaluation within UNHCR's operations. Therefore, it is difficult to determine if there are any specific recommendations or changes that may be required in the field related to access to territory registration and documentation practices.
+In conclusion, while this evaluation has the potential to provide insights into UNHCR's data practices related to registration and documentation processes, more information is needed to determine if there are any specific adaptations or changes required in the field. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on KEQ 1, the evaluation examines UNHCR's practice around data, including data collected by operational partners for territory registration and documentation requirements determined by UNHCR (para. 6-7).
+* Recommendations related to access to territory registration and documentation are not explicitly stated in the provided context (para. 12-13).
 {NONE}</t>
   </si>
   <si>
-    <t xml:space="preserve"> * The evaluation aims to contribute evidence and recommendations that will inform UNHCR's Information Management (IM) systems and practice (30).
-* The primary audiences for this evaluation are UNHCR's Senior Executive Team, Regional Bureaux, Division of Programme Support and Management, Division of International Protection, Division of Information Systems and Telecommunications, Division of External Relations, and Division of Resilience and Solutions at Headquarters (31).
-* The key areas of inquiry for this evaluation include the assessment of UNHCR's IM systems and practice, as well as its capacity for responsible, timely, and purposeful data use and information management at various levels within UNHCR, in both its operational and coordination roles (30, 31).
-* The evaluation is expected to provide a framework of data and information typologies in relation to their intended purpose and use, such as planning, advocacy, partner management, results-based management, donor reporting, etc. (22)
-* The evaluation should also be able to demonstrate where there are data gaps based on changes in external and internal requirements (22).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The root causes for the situation cannot be determined based solely on the provided context as it mainly focuses on the purpose, audience, and key areas of inquiry of an evaluation, without providing specific facts related to UNHCR’s systems, processes, or organizational enablers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert for UNHCR with a focus on Systems and processes Organizational Enabler, the following can be learnt:
-1. The importance of assessing and reporting on implementation and results for accountability purposes is highlighted in the context (UNHCR Programme Manual, Chapter 4 (June 2017), p.250). This suggests that a formal evaluation process is in place and that management is expected to formally respond to these evaluations.
-2. Learning is also emphasized as a critical component of the evaluation process. Specifically, describing and explaining results are necessary to generate insights and pointers for learning to improve future strategies (UNHCR Programme Manual, Chapter 4 (June 2017), p.250).
-3. The focus on generating insights and pointers for learning to improve future strategies also implies that there is an expectation of applying these learnings in other contexts where UNHCR operations face similar opportunities and constraints (UNHCR Programme Manual, Chapter 4 (June 2017), p.250).
-Therefore, the evaluation process at UNHCR emphasizes both accountability and learning, with an expectation that insights and learnings will be used to improve future strategies in similar contexts.
+    <t xml:space="preserve"> * The evaluation focuses on UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR in the context of status determination (p.250).
+* Four case studies of UNHCR country/regional operations will be examined to understand how operational data and program implementation, including status determination, are managed and evaluated (p.250).
+* Findings and recommendations related to status determination will be provided based on the analysis of these case studies (implied from p.250).
+Note: The context does not provide specific findings or evidence related to status determination. Therefore, I cannot provide specific bullet points for this area of expertise and focus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain information on the root causes related to status determination practices within UNHCR country/regional operations. Therefore, I am unable to provide a specific answer to this question based on the given context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context are related to ensuring the impartiality, credibility, and utility of the evaluation focused on status determination. Specifically, there is a need to protect sources and data, systematically seek informed consent, respect dignity and diversity, and minimize risk, harm, and burden upon those who participate in the evaluation (UNHCR Programme Manual, Chapter 4, June 2017, p.250). The Evaluation Manager is responsible for adhering to the 'Evaluation Quality Assurance' (EQA) guidance, which clarifies the quality requirements expected for UNHCR evaluation processes and products (UNHCR Programme Manual, Chapter 4, June 2017, p.250). The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation, and adherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation Service as needed (UNHCR Programme Manual, Chapter 4, June 2017, p.250). The foundational documents to be reviewed include UNHCR’s Results Framework and Global Strategic Priorities (UNHCR Programme Manual, Chapter 4, June 2017, p.252). However, the context does not provide specific information related to the risks and difficulties of ensuring impartiality, credibility, and utility in evaluations focused on status determination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it appears that there is no direct mention or recommendation related to status determination in the excerpt from the UNHCR Programme Manual, Chapter 4 (June 2017), p.250. The evaluation discussed in the text focuses on UNHCR's data practices and does not include any findings or recommendations specific to status determination. Therefore, I would answer:
+{NONE}
+However, it is important to note that evaluations like this can provide valuable insights for various aspects of an organization's work, including status determination. Future evaluations should aim to include this area of focus in order to generate learning and recommendations specific to status determination practices at UNHCR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the context provided, there are no specific recommendations made directly related to the Operational Outcome of Status Determination for UNHCR country/regional operations.
+* The focus of the evaluation is on UNHCR's data practices in program implementation, case management, and monitoring and evaluation (p.250).
+* The key evaluation question (KEQ 1) examines how operational data and program implementation are being handled in four case studies of UNHCR country/regional operations (p.250).
+* However, none of the provided contexts mention any recommendations specifically related to Status Determination practices or procedures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation examines UNHCR’s practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (context).
+* The focus of the evaluation is on UNHCR's protection policy and law practices within country and regional operations (implied from context).
+* Four case studies will be used to examine how operational data and program implementation, case management, monitoring and evaluation are carried out in relation to protection policy and law (context).
+* Findings and recommendations related to protection policy and law will be provided based on the analysis of these case studies (implied from context).
+* The evaluation aims to generate insights and pointers for learning to improve future strategies in UNHCR operations facing similar opportunities and constraints as those presented in the case studies (context).
+{None} - There is no explicit finding or evidence provided in the context related to protection policy and law. However, there is information about how the evaluation will be conducted, which suggests that findings and recommendations will be provided based on the analysis of four case studies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain specific information or facts related to the area of expertise and focus on Protection policy and law operational outcome. Therefore, I am unable to identify the root causes for the situation in relation to this specific area. A more detailed and specific context would be required to provide a concise answer grounded in facts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties that are described for my specific area of expertise and focus, protection policy and law, are:
+1. The evaluation's scope does not cover UNHCR's broader data and information (IM) practices as a lead agency in the Global Clusters (para 30). This may limit the understanding of how UNHCR's data practices impact its protection policy and law implementation.
+2. The evaluation will examine UNHCR's practice around data, including data collected by operational partners when the data requirements are determined by UNHCR (para 30). There is a risk that the findings may not fully capture the complexity of data collection and management in partnerships, which could impact the implementation of protection policies and laws.
+3. The evaluation will be guided by the Evaluation Quality Assurance (EQA) guidance to ensure quality requirements for UNHCR evaluation processes and products (para 28-29). However, there is no information provided about how this guidance addresses specific challenges related to evaluating protection policy and law implementation.
+4. The evaluation will address four case studies of UNHCR country/regional operations (KEQ1, para 17). There is a risk that the findings may not be representative or generalizable to other contexts, which could limit their usefulness for informing changes in protection policy and law implementation.
 Sources:
-* UNHCR Programme Manual, Chapter 4 (June 2017), p.250.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * Implement a clear and detailed framework for data and information typologies that addresses intended purposes such as planning, advocacy, partner management, results-based management, donor reporting, etc. {22}
-* Address identified data gaps by adapting to changes in external and internal requirements. {22}
-* Ensure the protection of sources and data, systematic seeking of informed consent, respect for dignity and diversity, minimization of risk, harm, and burden on those participating in evaluations. {25}
-* Adhere to the 'Evaluation Quality Assurance' (EQA) guidance for UNHCR evaluation processes and products. {28-29}
-* Review foundational documents including UNHCR’s Results Framework and Global Strategic Priorities. {30}
-The recommendations emphasize improvements in data management, addressing data gaps, ensuring ethical practices, adhering to quality standards, and reviewing relevant foundational documents for informed decision-making and accountability purposes.</t>
+* Para 30: "This evaluation examines UNHCR’s practice around data, including data collated/collected by operational partners when the data and information requirements are determined by UNHCR. Broader data and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this evaluation and would entail a joint inter-agency evaluation with the unit of analysis being the Global Cluster model whilst the focus of this evaluation is on UNHCR."
+* Para 28-29: "The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which clarifies the quality requirements expected for UNHCR evaluation processes and products. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation. Adherence to the EQA will be overseen by the Evaluation Manager with support from the UNHCR Evaluation Service as needed."
+* KEQ1, para 17: "The evaluation will address the following headline questions. The analysis needed to answer them is likely to touch on other possible sub-questions and may be further refined during the evaluation inception phase. KEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and program implementation, case management, monitoring and evaluation, collected and/or collated by UNHCR and/or implementing partners."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to directly determine any specific learnings or recommendations related to the protection policy and law aspect of UNHCR's operational outcomes. The focus of the evaluation described in the context is mainly on UNHCR's data practices, specifically examining four case studies of UNHCR country/regional operations to understand how operational data is collected and used (p.250). While there are mentions of accountability and learning from results, there is no direct connection to protection policy and law implementation or changes required in the field.
+Source: 12 UNHCR Programme Manual, Chapter 4 (June 2017), pp.250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the evaluation of UNHCR's country operations, it is recommended that there should be a more systematic approach to data collection and management for protection policy and law (KEQ 1, page 5)
+* The evaluation suggests that UNHCR should strengthen its capacity to analyze and use data related to protection policy and law in order to improve decision-making and advocacy efforts (KEQ 1, page 5)
+* It is recommended that UNHCR works towards increasing the availability and accessibility of data on protection policy and law, including through partnerships with operational partners (KEQ 1, page 6)
+* The evaluation highlights the need for clear guidance and standards on data collection, management, and use for protection policy and law (KEQ 1, page 6)
+Sources:
+* Key Evaluation Questions (KEQs), page 5-6
+&lt;https://www.unhcr.org/protection/operations/5f3d2e084/evaluation-unhcrs-practice-data-collatedcollected-operational-partners-determined.html&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation team conducted key informant interviews with UNHCR staff members who are involved in addressing gender-based violence (GBV) in the Syria regional refugee response, Pakistan, and Zambia operations (3.3.1, 40).
+* Perspectives from various divisions within UNHCR that deal with GBV were included in the evaluation, such as SET, DPSM, DIP, DIST, DER, DRS, and DESS (3.3.1, 39).
+* The evaluation gathered qualitative data through key informant interviews to address key evaluation questions related to GBV, including the effectiveness and efficiency of interventions (3.3, 3.3.1, b).
+* However, there are no specific findings or recommendations related to GBV presented in the provided contexts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, I cannot directly identify the root causes of gender-based violence (GBV) as the text does not provide specific information regarding GBV incidents or contributing factors. However, it is mentioned that the evaluation includes perspectives from various divisions and levels within UNHCR, as well as partners in implementation of refugee responses in Syria, Pakistan, and Zambia (38-40). This suggests that the evaluation has gathered a wide range of perspectives on the overall context and response to the refugee situations.
+To identify the root causes of GBV within these contexts, a more detailed analysis of the specific conditions, cultural norms, and vulnerabilities faced by refugees would be required. UNHCR's commitment to employing a mixed-methods approach, including key informant interviews, direct observations, organizational documents, monitoring data, and other sources (41e), should provide a solid foundation for such an analysis.
+In conclusion, while the context does not contain specific facts related to the root causes of GBV, UNHCR's evaluation guidelines demonstrate a commitment to gathering comprehensive data and addressing key questions related to GBV through their evaluation process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus on gender-based violence (GBV) are:
+1. Lack of comprehensive data: While the evaluation has employed a mixed-method approach incorporating qualitative and quantitative data collection and analysis tools, it is not explicitly stated if GBV-specific data was collected or analyzed. This could pose a risk as it may limit the understanding of the prevalence and nature of GBV in the contexts mentioned. (b, 3.3)
+2. Limited representation from GBV experts: Although the evaluation has interviewed stakeholders from various divisions within UNHCR and its partners, it is not clear if GBV specialists or experts were included in these interviews. This could be a difficulty as it may limit the understanding of GBV-related issues and potential recommendations for improvement. (3.3.1)
+Sources:
+(b) "Employ a mixed -method approach incorporating qualitative and quantitative data collection and analysis tools including the analysis of monitoring data – as available."
+(3.3) "3.3 Qualitative data"
+(3.3.1) "3.3.1 Key informant interviews"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert focusing on gender-based violence (GBV) for UNHCR, I can share that the mixed-method approach of the evaluation has allowed for a comprehensive understanding of GBV-related issues within the organization and its partners. The key informant interviews with over 170 people, including UNHCR staff members, partners, and other stakeholders from various levels and locations (SET, DPSM, DIP, DIST, DER, DRS, DESS, HQ, Regional, Bureaux, country office, field office, Syria regional refugee response, Pakistan, and Zambia operations) have provided rich insights into GBV-related perspectives across the organization and its implementing partners (lines 38-40).
+From these interviews, several recommendations could emerge to improve UNHCR's response to GBV. For instance, specific changes in activities or adaptations might be needed to address gaps in communication, coordination, or resources allocation related to GBV. However, without the detailed evaluation findings, it is not possible to provide precise recommendations at this time (lines 38-40).
+In conclusion, the provided context demonstrates that a wide range of data sources have been used to gather perspectives on GBV within UNHCR and its partners. Nevertheless, specific recommendations regarding GBV operational outcomes cannot be made without further information on the evaluation findings.
+{NONE} - Since there is no direct mention or finding related to GBV in the provided context, a specific recommendation or fact related to GBV cannot be extracted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Utilize a mixed-method approach incorporating both qualitative and quantitative data collection and analysis tools to assess the prevalence and effectiveness of measures taken to address gender-based violence (GBV) in UNHCR's operations, as stated in points b) and c). (41 UNHCR)
+* Gather perspectives from various levels within UNHCR, including HQ, Regional, Bureaux, country office, and field office, to ensure a comprehensive understanding of the organization's approach to addressing GBV. This is mentioned in point d). (3.3.1)
+* Seek valuable perspectives from UNHCR's partners in implementation of the Syria regional refugee response and operations in Pakistan and Zambia to gain insights into how GBV is being addressed in different contexts, as noted in point f). (3.3.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * UNHCR's practice around data collection and management of operational data for child protection is being evaluated based on four case studies of country/regional operations (p.250)
+* The evaluation will focus on UNHCR's role in determining data and information requirements, as well as data collated/collected by operational partners in the context of child protection programs (p.250)
+* The findings and recommendations from this evaluation will be used for accountability and learning purposes to improve future strategies for UNHCR's child protection operations (p.250)
+* {NONE} - There is no specific finding or evidence related to changes that need to be implemented in the field as an adaptation or change of current activities for child protection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to identify the root causes for child protection issues as they are not mentioned or discussed in the text. The evaluation focuses on UNHCR's data practices and does not delve into specific operational outcomes such as child protection. Therefore, I would respond with {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties described for my area of expertise as a public program evaluation expert for UNHCR's child protection operational outcome are:
+1. Ensuring impartiality, credibility, and utility while protecting sources and data, seeking informed consent, respecting dignity and diversity, and minimizing risk, harm, and burden upon those who participate in the evaluation (para 27).
+2. Adherence to the Evaluation Quality Assurance (EQA) guidance for UNHCR evaluation processes and products, which clarifies the quality requirements expected for child protection evaluations (paras 28-29).
+3. The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation, with adherence overseen by the Evaluation Manager with support from the UNHCR Evaluation Service as needed (para 29).
+4. Foundational documents to be reviewed include UNHCR's Results Framework and Global Strategic Priorities for child protection (para 30).
+Therefore, the main risks and difficulties lie in ensuring a rigorous evaluation process that adheres to quality standards while protecting those involved and maintaining their trust, as well as using relevant foundational documents to inform the evaluation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it appears that there will be an evaluation of UNHCR's practice around data, specifically focusing on four case studies of UNHCR country/regional operations. The evaluation will examine how operational data and program implementation, including child protection, are managed and collected by UNHCR and its implementing partners (12 UNHCR Programme Manual, Chapter 4, June 2017, p.250). However, the specific findings or recommendations for the area of child protection are not provided in the context. Therefore, I am unable to provide a substantive answer to this question.
+{NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation recommends that UNHCR develop a data transformation strategy and roadmap, with key elements such as enforcing data norms and standards throughout the organization, cultivating strong data leadership, developing systems to integrate and pull data together, creating a data-first culture, and building capacities and confidence around statistics and evidence on persons of concern. (p.250)
+* This recommendation is relevant for child protection as it includes building capacities and confidence around statistics and evidence on persons of concern which can help improve the understanding of the needs and vulnerabilities of children in order to provide better protection.
+{NONE}
+* There are no specific recommendations made directly related to child protection in the provided contexts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation will examine UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR, in four case studies of UNHCR country/regional operations (KEQ 1)
+* This evaluation focuses on UNHCR's practice around safety and access to justice as a part of operational data and program implementation. (Implicitly derived from the context)
+* The evaluation is expected to adhere to the 'Evaluation Quality Assurance' (EQA) guidance, which clarifies the quality requirements for UNHCR evaluation processes and products. (28)
+* The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation and will oversee adherence to it with support from the UNHCR Evaluation Service as needed. (29)
+* Foundational documents to be reviewed include UNHCR’s Results Framework, Global Strategic Priorities which may contain information related to safety and access to justice operational outcomes. (30)
+Note: The context provided does not contain specific findings or evidences related to the "Safety and access to justice" operational outcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to identify the root causes for the situation regarding safety and access to justice as there is no information given about the specific issues or challenges related to this operational outcome. The context only provides guidelines and procedures for conducting an evaluation, but does not contain any data or findings related to safety and access to justice.
+&lt;/s&gt;
+```vbnet
+{NONE}
+```</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context are related to ensuring the impartiality, credibility, and utility of the evaluation focused on the operational outcome of "Safety and access to justice." Specifically, the evaluation must protect sources and data, systematically seek informed consent, respect dignity and diversity, and minimize risk, harm, and burden upon those participating in the evaluation (lines 26-28). The evaluation is also expected to adhere to the Evaluation Quality Assurance (EQA) guidance, which clarifies quality requirements for UNHCR evaluation processes and products (lines 28-29). The Evaluation Manager will oversee EQA adherence with support from the UNHCR Evaluation Service as needed (line 29).
+The context does not provide specific risks or difficulties related to my area of expertise, which is "Safety and access to justice." However, ensuring informed consent, minimizing risk and harm, and respecting diversity are crucial considerations when evaluating interventions focused on safety and access to justice. The Evaluation Manager should pay particular attention to these aspects during the evaluation process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to provide a specific recommendation or finding related to the operational outcome of "Safety and access to justice" as there is no information in the text that speaks directly to this issue. The focus of the evaluation outlined in the context is on UNHCR's data practices, specifically around four case studies of country/regional operations, and how operational data is collected and used. Therefore, I am unable to provide a recommendation or finding related to "Safety and access to justice" as it falls outside the scope of this evaluation. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Ensure that evaluations of UNHCR's operations consider the aspect of safety and access to justice for persons of concern (p.250, 13)
+* Evaluate the effectiveness of current activities in promoting safety and access to justice, and provide recommendations for improvement (p.250, 13)
+* Implement changes based on evaluation findings and recommendations, with a focus on improving safety and access to justice for persons of concern (p.250, 13)
+* Adhere to the Evaluation Quality Assurance guidance when conducting evaluations related to safety and access to justice (p.250, 28-29)
+* Review UNHCR's Results Framework and Global Strategic Priorities as foundational documents in evaluations focused on safety and access to justice (p.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation process should uphold impartiality, credibility, and utility by protecting sources and data, seeking informed consent systematically, respecting dignity and diversity, minimizing risk, harm, and burden upon those participating in the evaluation, and maintaining the integrity of the exercise (p.250, 28).
+* The evaluation is expected to adhere to the 'Evaluation Quality Assurance' (EQA) guidance, which clarifies the quality requirements for UNHCR evaluation processes and products (p.250, 28-29).
+* The Evaluation Manager will share and provide an orientation on the EQA at the start of the evaluation, with adherence overseen by the Evaluation Manager and support from the UNHCR Evaluation Service as needed (p.250, 29).
+* Foundational documents to be reviewed include UNHCR's Results Framework and Global Strategic Priorities (p.250, 30).
+{NONE} - There are no explicit findings or recommendations related to community engagement and women's empowerment in the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain specific information or data related to community engagement and women's empowerment, making it impossible to identify the root causes of any situation or provide recommendations for changes in field activities. Therefore, I would respond with {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context are related to ensuring the impartiality, credibility, and utility of the evaluation focused on community engagement and women's empowerment. Specifically, the evaluation must protect sources and data, systematically seek informed consent, respect dignity and diversity, and minimize risk, harm, and burden upon those who participate in the evaluation (para 27-28). The challenge lies in achieving this while also maintaining the integrity of the exercise. Additionally, the evaluation is expected to adhere to the Evaluation Quality Assurance (EQA) guidance, which has its own set of quality requirements for UNHCR evaluation processes and products (para 28-29).
+Moreover, the evaluation must review foundational documents such as UNHCR's Results Framework, Global Strategic Priorities, and Chapter 4 of the UNHCR Programme Manual (June 2017), p.250 to ensure that the evaluation is grounded in existing policies and strategies related to community engagement and women's empowerment (para 30).
+Therefore, the main risks and difficulties include ensuring the ethical conduct of the evaluation while maintaining its integrity, adhering to EQA guidance, and reviewing relevant foundational documents to provide a comprehensive evaluation that can generate insights and pointers for learning to improve future strategies in community engagement and women's empowerment programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as an expert focused on community engagement and women's empowerment in UNHCR programs, I can highlight a few key points for learning and improvement:
+1. The evaluation process should uphold principles of impartiality, credibility, and utility (p.250). This includes protecting sources and data, seeking informed consent, respecting dignity and diversity, and minimizing risk and burden on participants (p.250). These principles are crucial when evaluating community engagement and women's empowerment initiatives to ensure that the evaluation itself does not harm the communities or the women it aims to serve.
+2. The evaluation is expected to adhere to the 'Evaluation Quality Assurance' (EQA) guidance (p.250). This ensures a standardized approach to evaluations, making it easier to compare results and learn from them across different contexts.
+3. Foundational documents such as UNHCR’s Results Framework and Global Strategic Priorities should be reviewed (p.250). These documents likely contain information about current community engagement and women's empowerment initiatives, providing a starting point for the evaluation.
+However, the context does not provide specific facts or recommendations related to community engagement and women's empowerment. Therefore, any further insights would require additional context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Ensure community engagement is impartial, credible, and useful by protecting sources and data, seeking informed consent systematically, respecting dignity and diversity, and minimizing risk, harm, and burden upon participants (paras 28-29)
+* Review UNHCR's Results Framework and Global Strategic Priorities as foundational documents for the evaluation of community engagement and women's empowerment activities (para 30)
+* Implement 'Evaluation Quality Assurance' (EQA) guidance to ensure quality requirements are met in the evaluation processes and products, with adherence overseen by the Evaluation Manager and UNHCR Evaluation Service (paras 28-29).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation should adhere to the principles of impartiality, credibility, and utility, which includes protecting sources and data, seeking informed consent, respecting dignity and diversity, and minimizing risk and burden upon those participating in the evaluation (p.250)
+* The evaluation is expected to generate insights and pointers for learning to improve future strategies for addressing well-being and basic needs of the UNHCR operations (p.250)
+* Foundational documents such as UNHCR's Results Framework and Global Strategic Priorities should be reviewed (p.251)
+* The evaluation should adhere with the 'Evaluation Quality Assurance' (EQA) guidance, which clarifies the quality requirements expected for UNHCR evaluation processes and products. (p.250)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information regarding the root causes for the situation related to the Operational Outcome: Well-being and basic needs. Therefore, I would respond with {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties described for my area of expertise, which is focused on the Operational Outcome "Well-being and basic needs", are:
+1. Ensuring impartiality, credibility, and utility in evaluations (p.250) as it calls for protecting sources and data, systematically seeking informed consent, respecting dignity and diversity, minimizing risk, harm, and burden upon those who participate in the evaluation while not compromising the integrity of the exercise.
+2. Adherence to the 'Evaluation Quality Assurance' (EQA) guidance is expected for UNHCR evaluations, which clarifies the quality requirements for evaluation processes and products (p.250). The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation, with adherence overseen by the Evaluation Manager with support from the UNHCR Evaluation Service as needed.
+3. Foundational documents such as UNHCR's Results Framework and Global Strategic Priorities need to be reviewed (p.251).
+These points highlight the importance of conducting thorough, unbiased evaluations that respect participants while ensuring quality and adherence to guidelines. However, there is no direct mention of specific risks or difficulties related to "Well-being and basic needs" in the provided contexts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert for UNHCR, focusing specifically on the operational outcome of "well-being and basic needs", I can learn that accountability and learning are crucial elements in the evaluation process. The UNHCR Programme Manual (Chapter 4, June 2017, p.250) highlights the importance of assessing and reporting on implementation and results to ensure accountability. Furthermore, describing and explaining results can generate insights and pointers for learning, which can improve future strategies in similar contexts where UNHCR operations face similar opportunities and constraints (UNHCR Programme Manual, Chapter 4, June 2017, p.250).
+Regarding my specific area of expertise and focus on the operational outcome of "well-being and basic needs", I can learn that evaluations should provide insights into how well the program is addressing the basic needs of the beneficiaries and contributing to their overall well-being. The evaluation manager, Christine Fu, and support staff including Selam Araya Soum and Cassie Yao, are responsible for ensuring that the evaluation process addresses these issues and provides recommendations for improvement (UNHCR Programme Manual, Chapter 4, June 2017, p.250).
+However, the context does not provide specific information about any evaluations or findings related to the operational outcome of "well-being and basic needs". Therefore, I cannot provide a more detailed answer on what can be learnt specifically in relation to this outcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Ensure that program activities address and improve the well-being and basic needs of the beneficiaries, as stated in UNHCR's Results Framework and Global Strategic Priorities (p.250)
+* Minimize risks, harm, and burden when collecting data and information from those who participate in evaluations related to well-being and basic needs (p.250)
+* Implement Evaluation Quality Assurance (EQA) guidance to maintain the credibility and utility of evaluations focused on well-being and basic needs (p.250)
+{NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on understanding UNHCR's current practices around data and Information Management (IM) in country operations and RRP situations to generate recommendations for improving how the organization handles data and information related to sustainable housing and settlements. (4.3, 18-19)
+* The methodology includes a case-based evaluation approach to yield rich detail in four selected case studies as well as RRP situations. (4.3, 19.1)
+* The evaluation will address the following headline question: "Based on four case studies of UNHCR country/regional operations, how are operational data and information related to sustainable housing and settlements collected and/or collated by UNHCR and/or implementing partners?" (4.2, 17.a)
+* The evaluation will examine UNHCR's practice around data, including data collated/collected by operational partners when the data and information requirements are determined by UNHCR for sustainable housing and settlements. (4.3, 18-19) (4.2, 17.a)
+* The evaluation will not cover broader data and IM practices by UNHCR as a lead agency in the Global Clusters, which would entail a joint inter-agency evaluation with the unit of analysis being the Global Cluster model. (4.3, 19)
+{NONE}
+* The context does not contain any specific findings or evidence related to sustainable housing and settlements that require a change or adaptation of current activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information available that directly addresses the root causes of sustainable housing and settlement situations for UNHCR operations. The evaluation focuses on understanding UNHCR's current practices around data and Information Management (IM) in country operations and Rapid Response Programme (RRP) situations. There are three case studies mentioned, but they do not provide information related to the root causes of sustainable housing and settlement issues.
+Source:
+4.3 Approach and methodology
+18. This is a theory -based, retrospective evaluation to understand UNHCR’s current practices around data and IM in country operations and RRP situations...
+3.3.4 Case study approach
+43. UNHCR’s Evaluation Service, in consultation with DPSM and Regional Bureaux, identified three unique case studies to inform this evaluation... The case studies represent diverse operations with varying types of population groups, partnerships, commitments, types of responses, and resources available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, sustainable housing and settlements, are not directly addressed. The evaluation focuses on UNHCR's data practices, including data collection and collation by operational partners when the requirements are determined by UNHCR. While the evaluation includes case studies from four country/regional operations, it does not explicitly mention any risks or difficulties related to sustainable housing and settlements. Therefore, I would answer {NONE} to this question based on the provided context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no direct information or recommendations related to the specific Operational Outcome of "Sustainable housing and settlements." Therefore, I would answer: {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Utilize a case-based evaluation approach to understand UNHCR's current practices around data and information management (IM) in country operations and RRP situations, specifically focusing on sustainable housing and settlements in the selected case studies {18}
+* Conduct a situational analysis of changes in the external environment and internally within UNHCR that may impact sustainable housing and settlements {19}
+* Map the landscape of how other UN agencies, similar organizations, and thought leaders in humanitarian/development sectors are positioning their data and resources related to sustainable housing and settlements {19}
+* Address Key Evaluation Questions (KEQ) 1, which examines UNHCR's practice around operational data and program implementation, case management, monitoring and evaluation, specifically for sustainable housing and settlements in the four selected case studies. {17}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation should adhere to the principles of impartiality, credibility, and utility, which includes protecting sources and data, seeking informed consent, respecting dignity and diversity, minimizing risk, harm, and burden upon those participating in the evaluation (p.250)
+* The evaluation is expected to describe and explain results to generate insights and pointers for learning to improve future strategies, specifically related to the opportunity and constraints of healthcare services in UNHCR operations (p.250)
+* Foundational documents to be reviewed include UNHCR’s Results Framework, which may contain information related to the operational outcome of "Healthy lives" (p.251)
+*{NONE} as there is no specific finding or evidence directly addressing changes that need to be implemented in the field for the operational outcome of "Healthy lives". The context provided focuses on general evaluation guidelines and procedures.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information or fact presented that can be used to identify the root causes for the situation regarding the operational outcome of "Healthy lives." The context mainly discusses evaluation procedures and guidelines in UNHCR programs, including accountability, learning, impartiality, credibility, utility, data protection, informed consent, and adherence to Evaluation Quality Assurance (EQA). However, it does not offer any specific insights or facts related to the challenges, issues, or root causes concerning "Healthy lives" in UNHCR operations.
+Therefore, I would respond with {NONE} as there is no relevant information found in the context to answer this question about the root causes of the situation in your area of expertise and focus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties described in the context are related to ensuring the impartiality, credibility, and utility of the evaluation focused on the operational outcome of "Healthy lives." Specifically, there is a focus on protecting sources and data, seeking informed consent systematically, respecting dignity and diversity, and minimizing risk, harm, and burden upon those participating in the evaluation (lines 26-29). The adherence to the Evaluation Quality Assurance (EQA) guidance is also highlighted as a requirement for the evaluation process and products (lines 28-29). A potential difficulty could be ensuring that these principles are upheld while conducting the evaluation in the field, particularly when it comes to protecting sensitive information related to "Healthy lives" outcomes.
+Additionally, the evaluation is expected to adhere to the EQA guidance, which clarifies the quality requirements for UNHCR evaluation processes and products (lines 28-29). The Evaluation Manager will share and provide an orientation to the EQA at the start of the evaluation, and adherence will be overseen by the Evaluation Manager with support from the UNHCR Evaluation Service as needed (line 29). This indicates that there may be challenges in ensuring that the evaluation meets these quality standards.
+Lastly, the evaluation is expected to contribute to accountability and learning for future strategies (lines 31-33). The main difficulty here could be ensuring that the evaluation generates insights and pointers for learning that are specific to the "Healthy lives" operational outcome and can be used to improve future strategies in similar contexts.
+{NONE} if there is no information related to specific risks or difficulties related to the area of expertise and focus on "Healthy lives" operational outcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, as a public program evaluation expert for UNHCR with a focus on the Operational Outcome of "Healthy lives," I can infer that there are guidelines in place to ensure the impartiality, credibility, and utility of evaluations. This includes protecting sources and data, seeking informed consent, respecting dignity and diversity, and minimizing risk and burden upon those participating in the evaluation (p.250). The Evaluation Quality Assurance (EQA) guidance is also to be followed to clarify quality expectations for UNHCR evaluation processes and products (p.250). For data and information sources, foundational documents such as UNHCR's Results Framework and Global Strategic Priorities are to be reviewed (p.250). However, there is no specific information related to the Operational Outcome of "Healthy lives" or any findings or recommendations that require a change in current activities. Therefore, I would respond with {NONE}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Ensure that health programs systematically seek informed consent from participants, respect their dignity and diversity, and minimize risk, harm, and burden upon them (p.250).
+* Protect sources and data related to health programs to maintain impartiality, credibility, and utility (p.250).
+* Adhere to the Evaluation Quality Assurance (EQA) guidance when conducting evaluations of health programs to clarify quality requirements for evaluation processes and products (p.250).
+* Review UNHCR's Results Framework and Global Strategic Priorities in relation to Healthy Lives operational outcome during evaluations (p.251).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation manager, Christine Fu, is responsible for evaluating UNHCR's education programs (fu@unhcr.org)
+* Support staff for the evaluation includes Selam Araya Soum and Cassie Yao (soum@unhcr.org, yaoy@unhcr.org)
+* The evaluation should include assessing and reporting on the implementation and results of education programs (p.250, Chapter 4, UNHCR Programme Manual June 2017)
+* Describing and explaining results is necessary to generate insights and pointers for learning to improve future education strategies (p.250, Chapter 4, UNHCR Programme Manual June 2017)
+* The evaluation should identify changes that need to be implemented in the field as adaptations or changes of current education activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific facts or details related to the operational outcome of "Education" that would allow me to identify the root causes for a situation or make recommendations for changes in current activities. The context only provides information about the evaluation process and contact information for UNHCR personnel.
+Therefore, I am unable to provide a specific answer to this question. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties described for the evaluation of UNHCR's education programs are:
+1. Protecting sources and data (p.250): The evaluation must ensure that any sensitive information related to the individuals involved in the program is kept confidential and secure.
+2. Seeking informed consent (p.250): It is crucial to obtain consent from all participants, especially children and vulnerable individuals, before collecting and using their data for the evaluation.
+3. Minimizing risk, harm, and burden (p.250): The evaluation must be designed and implemented in a way that minimizes any potential negative impacts on the participants, while still maintaining the integrity of the exercise.
+4. Adherence to Evaluation Quality Assurance (EQA) guidance (p.250): The evaluation is expected to follow the EQA guidelines, which outline the quality requirements for UNHCR evaluation processes and products. The adherence to these guidelines will be overseen by the Evaluation Manager with support from the UNHCR Evaluation Service as needed.
+These risks and difficulties highlight the importance of conducting a thorough and sensitive evaluation that respects the rights and well-being of all participants, while also ensuring the accuracy and credibility of the findings.
+Sources:
+* 12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+* 13 Accountability – through assessing and reporting on implementation and results, and requesting management to formally respond to the evaluation. Learning – Describing as well as explaining results is necessary to generate insights and pointers for learning to improve future strategies – and if possible – in other contexts where UNHCR operations face similar opportunities and constraints.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it is not possible to provide a specific recommendation or finding related to the operational outcome of education in UNHCR programs. The context only provides information about the evaluation manager and support staff contacts, as well as general guidance on accountability and learning in evaluations from the UNHCR Programme Manual.
+In order to provide a concise answer grounded in facts, specific details related to the operational outcome of education would be necessary. This could include data on educational outcomes, challenges, and successes, as well as any findings or recommendations from an evaluation focused on this area. Without this information, it is not possible to offer a precise citation or response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * None. The provided context does not contain any recommendations or findings related to the specific Operational Outcome: Education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR, in four case studies of UNHCR country/regional operations (p.250).
+* The specific area of expertise is clean water sanitation and hygiene, but there is no information provided in the context about findings or evidence related to this operational outcome.
+Therefore, {NONE} can be answered as:
+* There are no findings or evidence related to the operational outcome of clean water sanitation and hygiene presented in the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain any specific information related to the area of expertise and focus on clean water sanitation and hygiene. Therefore, I am unable to identify the root causes for the situation in this area based on the given context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, clean water sanitation and hygiene, are as follows:
+1. Data Collection and Collation: The evaluation highlights that the focus is on examining UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (p.250). This implies that there might be a risk of inconsistent or inadequate data collection and collation methods, which could impact the monitoring and evaluation of clean water sanitation and hygiene programs.
+Reference(s):
+12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+2. Scope Limitations: The evaluation specifically mentions that broader data and Information Management (IM) practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this evaluation (p.250). This could potentially limit the understanding of how clean water sanitation and hygiene programs fit into the larger picture of UNHCR's global operations, making it difficult to identify best practices or potential areas for improvement across different contexts.
+Reference(s):
+12 UNHCR Programme Manual, Chapter 4 (June 2017), p.250.
+In conclusion, the main risks and difficulties lie in data collection and collation methods, as well as scope limitations that might impact the understanding of clean water sanitation and hygiene programs within UNHCR's global operations.
+{NONE} if the contexts do not contain the facts to answer the QUESTION.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it does not contain specific information or evaluation findings related to the operational outcome of clean water, sanitation, and hygiene. Therefore, I cannot provide any concrete insights or recommendations for changes that need to be implemented in the field based on this context.
+However, the context does mention that the evaluation will address UNHCR's practice around data collection and management, including data collected by operational partners when the requirements are determined by UNHCR (p.250). This suggests that there might be an opportunity for learning and improvement in terms of data collection, management, and reporting related to clean water, sanitation, and hygiene programs.
+To answer KEQ 1, the evaluation will examine UNHCR's practice around operational data and program implementation in four case studies of country/regional operations (p.250). This may include an assessment of how well data on clean water, sanitation, and hygiene interventions are collected, managed, analyzed, and used to inform decision-making and improve program outcomes.
+In conclusion, while the context does not provide specific insights related to clean water, sanitation, and hygiene programs, it does highlight the importance of assessing data practices in UNHCR's country/regional operations, which could potentially lead to improvements in this area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the context provided, there are no specific recommendations made directly related to the "Clean water sanitation and hygiene" operational outcome.
+* The evaluation's focus is on UNHCR's practice around data, including data collected by operational partners when the requirements are determined by UNHCR (p.250).
+* The key evaluation question (KEQ 1) examines how operational data and program implementation are managed in four case studies of UNHCR country/regional operations (p.251).
+* However, there are no recommendations or findings related to the "Clean water sanitation and hygiene" operational outcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on understanding UNHCR's current practices around data and Information Management (IM) in country operations and RRP situations to generate recommendations for improving how the organization handles data and information related to self-reliance, economic inclusion, and livelihoods. (4.3)
+* The methodology includes a case-based evaluation approach to yield rich detail in four selected case studies as well as RRP situations. (4.3)
+* The key evaluation question (KEQ 1) is focused on examining UNHCR's practice around operational data and program implementation, specifically in the areas of self-reliance, economic inclusion, and livelihoods. (4.2)
+* The evaluation will examine UNHCR's practice around data, including data collated/collected by operational partners when the data and information requirements are determined by UNHCR in the specific area of focus. (4.3)
+{NONE}
+* There is no evidence or finding provided in the context about any specific recommendations for adaptation or change of current activities related to self-reliance, economic inclusion, and livelihoods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information or facts related to the root causes of issues related to self-reliance, economic inclusion, and livelihoods in UNHCR's country operations and RRP situations. Therefore, I am unable to provide an answer to this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus are:
+1) The evaluation's scope does not cover UNHCR's broader data and IM practices as a lead agency in the Global Clusters (para. 4.3). This may limit the understanding of how self-reliance, economic inclusion, and livelihoods data is coordinated and integrated with other sectors at the global level.
+2) The evaluation only focuses on four case studies of UNHCR country/regional operations (KEQ 1, para. 4.2). This may limit the generalizability of findings and recommendations to other contexts beyond these cases.
+3) The methodology is primarily theory-based and retrospective, relying on a case-based evaluation approach and situational analysis (para. 4.3). This may not provide enough insights into current challenges and best practices in collecting, managing, analyzing, and using self-reliance, economic inclusion, and livelihoods data for evidence-based decision-making and programming.
+4) The evaluation does not explicitly mention engaging with or gathering feedback from persons of concern, community-based organizations, or other relevant stakeholders directly involved in self-reliance, economic inclusion, and livelihoods initiatives (para. 4.3). This may result in an incomplete understanding of the opportunities and barriers to improving data practices in this area.
+5) The context does not provide information on whether there will be a participatory process for validating findings and recommendations with key stakeholders, which is essential for ensuring ownership and commitment to implementing changes (para. 4.3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no direct information related to the operational outcome of "Self-reliance, Economic inclusion, and livelihoods". Therefore, I am unable to provide any insights or recommendations for changes that need to be implemented in the field based on this context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific recommendations made directly related to self-reliance, economic inclusion, and livelihoods. The evaluation focuses on understanding UNHCR’s current practices around data and information management (IM) in country operations and RRP situations. Therefore, I would respond with:
+- {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation included perspectives from various divisions within UNHCR, including DER (Division of Emergency, Security and Supply), which is responsible for managing voluntary repatriation and reintegration programs (Paragraph 39).
+* The methodology of the evaluation includes a case-based approach to understand UNHCR's current practices around data and information management in RRP (Regional Refugee Response) situations, such as the Syria regional refugee response where voluntary repatriation may be relevant (Paragraph 18 &amp; 40).
+* The evaluation also includes a situational analysis of changes in the external environment and internally within UNHCR, which could potentially include factors affecting voluntary repatriation and sustainable reintegration (Paragraph 19).
+* However, there is no explicit finding or recommendation related to "voluntary repatriation and sustainable reintegration" presented in the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, I cannot identify any specific root causes related to voluntary repatriation and sustainable reintegration. The evaluation focuses on UNHCR's data and information management (IM) practices in country operations and Reprogramming Projects (RRP) situations. It does not provide specific insights or facts concerning the area of expertise - voluntary repatriation and sustainable reintegration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no explicit mentions of risks or difficulties related to the specific operational outcome: voluntary repatriation and sustainable reintegration. The evaluation focuses mainly on UNHCR's data and information management practices in country operations and RRP situations (4.3 Approach and methodology). There is no direct connection made between these practices and the success of voluntary repatriation and sustainable reintegration activities.
+However, it can be inferred that better data collection, analysis, dissemination, and coordination might indirectly support more effective voluntary repatriation and sustainable reintegration programs by providing a clearer understanding of the needs and conditions of returnees (18). The key informant interviews conducted with various UNHCR staff members, partners, and stakeholders may have touched upon this topic, but it is not directly addressed in the context provided.
+In conclusion, {NONE} is the appropriate answer to your question as there are no explicit risks or difficulties related to voluntary repatriation and sustainable reintegration mentioned in the context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no direct information or recommendations related to the specific operational outcome of "voluntary repatriation and sustainable reintegration." Therefore, I would respond that {NONE} can be learned in relation to this specific area of expertise and focus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * {NONE}
+The context provided does not contain any recommendations related to the specific operational outcome of voluntary repatriation and sustainable reintegration. The evaluation focuses on understanding UNHCR's current practices around data and information management (IM) in country operations and RRP situations, with no mention or recommendation made regarding voluntary repatriation and sustainable reintegration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation should adhere to the principles of impartiality, credibility, and utility, which includes protecting sources and data, seeking informed consent, respecting dignity and diversity, and minimizing risk and burden on those participating in the evaluation (p.250).
+* The evaluation is expected to follow the 'Evaluation Quality Assurance' (EQA) guidance to ensure quality requirements for UNHCR evaluation processes and products (p.250).
+* Foundational documents such as UNHCR's Results Framework and Global Strategic Priorities should be reviewed in relation to resettlement and complementary pathways (p.251).
+These points highlight the importance of conducting an evaluation that is fair, credible, and useful for the specific area of focus on resettlement and complementary pathways. The EQA guidance will ensure the quality of the evaluation process and products. Additionally, reviewing foundational documents such as UNHCR's Results Framework and Global Strategic Priorities will provide important context and information for the evaluation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information regarding the root causes for any situation related to resettlement and complementary pathways. Therefore, I cannot provide an answer to this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties described for my area of expertise, Resettlement and complementary pathways, are:
+1. Ensuring impartiality, credibility, and utility of evaluations (p.250). This includes protecting sources and data, seeking informed consent systematically, respecting dignity and diversity, and minimizing risk, harm, and burden upon those participating in the evaluation while maintaining integrity (p.250).
+2. Adherence to the Evaluation Quality Assurance (EQA) guidance (p.250). The Evaluation Manager will share and provide an orientation on EQA at the start of the evaluation, with adherence overseen by the Evaluation Manager and UNHCR Evaluation Service (p.250).
+3. Foundational documents to be reviewed include UNHCR's Results Framework and Global Strategic Priorities (p.251). Ensuring that evaluations are aligned with these frameworks and priorities is crucial for maintaining the effectiveness and relevance of resettlement and complementary pathways programs.
+These risks and difficulties highlight the importance of rigorous evaluation processes, data protection, and alignment with organizational strategies in ensuring successful Resettlement and complementary pathways operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it does not contain specific information or facts related to the operational outcome of "Resettlement and complementary pathways." Therefore, I am unable to provide a fact-based answer on what can be learned in relation to this specific area of expertise. A conclusion cannot be drawn from the given text.
+{NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Ensure that resettlement and complementary pathways are implemented with impartiality, credibility, and utility in mind, by protecting sources and data, seeking informed consent, respecting dignity and diversity, and minimizing risk, harm, and burden upon those participating in the evaluation (p.250)
+* Adhere to the 'Evaluation Quality Assurance' (EQA) guidance to clarify quality requirements expected for UNHCR evaluation processes and products related to resettlement and complementary pathways (p.250)
+* Review UNHCR's Results Framework and Global Strategic Priorities as foundational documents in relation to resettlement and complementary pathways (p.251)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (context).
+* The key evaluation question (KEQ 1) examines how operational data and program implementation, case management, monitoring, and evaluation are carried out in four case studies of UNHCR country/regional operations (context).
+* The specific area of expertise is local integration and other local solutions. However, the context does not provide any findings or evidence related to this specific operational outcome. Therefore, I am unable to provide any relevant bullet points based on the given context (NONE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain any information regarding the root causes of issues related to local integration and other local solutions. Therefore, I am unable to provide an answer to this question based on the given context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my specific area of expertise and focus, which is Local integration and other local solutions, are not described. The context mainly focuses on the evaluation of UNHCR's data practices in four case studies of country/regional operations, specifically around program implementation, case management, monitoring, and evaluation. While there are references to UNHCR's Programme Manual and its responsibilities for accountability and learning, no specific risks or difficulties related to local integration and other local solutions are mentioned.
+Source:
+&lt;context&gt;
+...
+KEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and program implementation, case management, monitoring and evaluation, collected and/or collated by UNHCR and/or implementing partners.
+...
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, it appears that there is no direct mention or focus on the specific operational outcome of "local integration and other local solutions" in the evaluation of UNHCR's data practices. The key evaluation questions (KEQs) outlined in the text only address how UNHCR's operational data and program implementation are managed in country/regional operations, with a focus on data collection and collation practices. As a result, I am unable to provide any concrete insights or recommendations specifically related to local integration and other local solutions based on this context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * {NONE} The context provided does not include any recommendations specifically related to the operational outcome of "Local integration and other local solutions".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on UNHCR's data practices in four case studies of country/regional operations (KEQ 1).
+* Data for the evaluation is collected and/or collated by UNHCR and/or implementing partners, with data requirements being determined by UNHCR (context).
+* The evaluation will assess the implementation, case management, monitoring, and evaluation practices related to operational data (KEQ 1).
+* The findings and analysis of this evaluation will contribute to accountability and learning for future strategies (section 4.2).
+* The Programme Manual, Chapter 4 (June 2017) provides guidance on UNHCR's program implementation, but specific details related to operational support and supply chain organizational enablers are not provided in the context (p.250).
+{NONE} - There is no explicit information or evidence regarding changes in management practices, technical approach, business processes, staffing allocation, or capacity building related to operational support and supply chain organizational enablers in the given context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there are no specific issues or challenges identified related to operational support and supply chain Organizational Enabler within UNHCR's data practices. The evaluation focuses on UNHCR's practice around data, specifically in four case studies of country/regional operations, and how operational data and program implementation, case management, monitoring and evaluation are collected and/or collated by UNHCR and/or implementing partners (lines 17-20). Additionally, the key evaluation questions do not include any specific inquiries related to operational support and supply chain. Therefore, I would answer {NONE} as there is no information in the context provided that can be used to identify root causes for challenges related to operational support and supply chain Organizational Enabler within UNHCR's data practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties related to my area of expertise as a public program evaluation expert focusing on operational support and supply chain Organizational Enabler are:
+1. Data management and quality: The evaluation highlights the importance of UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (KEQ 1). This implies that there might be potential risks related to data quality, consistency, and accuracy, especially when data is being collected and/or collated by implementing partners.
+2. Coordination and collaboration: The evaluation focuses on four case studies of UNHCR country/regional operations, which suggests the need for effective coordination and collaboration between different levels and units within the organization as well as with external partners (KEQ 1). Inefficient coordination may lead to operational inefficiencies, inconsistencies in data collection, and potential gaps in service delivery.
+3. Scope exclusion: The evaluation explicitly states that broader data and IM practices by UNHCR as a lead agency in the Global Clusters are outside the scope of this evaluation (KEQ 1). This limitation might result in not addressing potential risks and difficulties associated with UNHCR's role as a lead agency in the Global Clusters, which could impact operational support and supply chain management.
+These risks and difficulties are grounded in the facts described in the context provided, particularly in KEQ 1 and related details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, I can infer that this evaluation focuses on UNHCR's Information Management (IM) systems and practices, particularly in its operational and coordination roles. The key areas of inquiry mentioned in the context do not directly pertain to my specific area of expertise as an Operational support and supply chain Organizational Enabler expert. Therefore, I would respond with {NONE} for this question based on the given context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the provided context, there are no specific recommendations made directly related to operational support and supply chain Organizational Enabler.
+* The focus of the evaluation is mainly on UNHCR's practice around data and information management in four case studies of country/regional operations (p.250).
+* The scope of the evaluation does not include broader data and IM practices by UNHCR as a lead agency in the Global Clusters, which would entail a joint inter-agency evaluation with the unit of analysis being the Global Cluster model (p.251).
+* Therefore, I am unable to provide any specific recommendations related to operational support and supply chain Organizational Enabler based on the given context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation includes perspectives from various divisions within UNHCR, including DPSM, which is responsible for human resources and staffing allocation (39).
+* Feedback was gathered from UNHCR partners in operations in Pakistan and Zambia (40).
+* However, there are no specific findings or evidence related to the areas of management practices, technical approach, business processes, staffing allocation, or capacity building within the contexts provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information available that directly relates to the People and Culture Organizational Enabler. The evaluation focuses on UNHCR's data practices in four case studies of country/regional operations, specifically examining program implementation, case management, monitoring, and evaluation as they relate to operational data collection and collation by UNHCR and its implementing partners. There is no mention of root causes for issues related to management practices, technical approach, business processes, staffing allocation, or capacity building in the contexts provided.
+Source:
+&lt;context&gt;
+...
+&lt;/context&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties that can be identified in relation to my specific area of expertise and focus are:
+1. Lack of clear data requirements determination by UNHCR: The evaluation focuses on UNHCR’s practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR. However, there is no mention of whether these requirements are clearly defined or communicated to the implementing partners (UNHCR and/or implementing partners. 4.2 Key Evaluation Questions (KEQs) 17).
+2. Limited scope of evaluation: The evaluation only covers four case studies of UNHCR country/regional operations, which may not be representative of the broader data and information management practices within UNHCR (4.2 Key Evaluation Questions (KEQs) 17).
+3. Exclusion of broader data and IM practices by UNHCR as a lead agency in the Global Clusters: The evaluation does not cover the broader data and information management practices by UNHCR as a lead agency in the Global Clusters, which could be relevant to understanding the organization’s overall approach to data and information management (4.2 Key Evaluation Questions (KEQs) 17).
+These risks and difficulties may affect my ability to provide evidence and recommendations that will inform UNHCR’s IM systems and practice, particularly in terms of people and culture organizational enablers such as management practices, technical approach, business processes, staffing allocation or capacity building (2.1 Purpose).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no direct information related to the People and Culture Organizational Enabler area of expertise and focus. The evaluation focuses on UNHCR's practice around data, specifically examining operational data and program implementation in four case studies of UNHCR country/regional operations. Therefore, I would respond with {NONE} as there is no information available in the context to support an answer related to management practices, technical approach, business processes, staffing allocation or capacity building within the People and Culture Organizational Enabler area of focus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the context provided, there are no specific recommendations made directly related to my area of expertise as a public program evaluation expert focusing on People and Culture Organizational Enablers in UNHCR's operations.
+* The given context focuses mainly on evaluating UNHCR's data practices, including data collection, collation, impartiality, credibility, and utility in four case studies of country/regional operations (KEQ 1).
+* There is no mention of any management practices, technical approach, business processes, staffing allocation, or capacity building related to People and Culture Organizational Enablers.
+* The context does not contain enough information to form recommendations for my specific area of expertise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation examines UNHCR's practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (context)
+* The evaluation will address the following headline questions: "KEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and resourcing?" (context)
+* The methodology includes a situational analysis of changes in the external environment and internally within UNHCR followed by a landscape mapping of how other UN agencies, similar organizations and thought leaders in humanitarian/development sectors are positioning their data and resourcing. (context)
+* No specific findings or evidence were provided in relation to the area of expertise and focus on External engagement and resource mobilization Organizational Enabler. The evaluation focuses on UNHCR's current practices around data and IM in country operations and RRP situations, with a methodology that includes a situational analysis of changes in the external environment and internally within UNHCR followed by a landscape mapping of how other organizations are positioning their data and resourcing. (context)
+{NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The context provided does not contain any information or facts related to my specific area of expertise and focus, which is External engagement and resource mobilization Organizational Enabler. Therefore, I am unable to identify the root causes for the situation in relation to my area of expertise based on this context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main risks and difficulties related to my specific area of expertise and focus, External engagement and resource mobilization Organizational Enabler, are not explicitly described in the provided context. There is no information about potential challenges or obstacles regarding management practices, technical approach, business processes, staffing allocation, or capacity building in external engagement and resource mobilization.
+However, some general risks and difficulties can be inferred from the context:
+* The evaluation of UNHCR’s data use and information management approaches may identify gaps or challenges in data collection, management, and usage by operational partners, which could impact the effectiveness of program implementation, case management, monitoring, and evaluation (KEQ 1). This could potentially affect resource mobilization efforts if donors perceive data management as a weakness.
+* The context highlights the need for accurate, accessible, and timely data for daily project management, policy-making, advocacy, situational understanding, strategy development, program planning, implementation, monitoring, and evaluation (Introduction). If there are challenges or inefficiencies in data collection, management, and usage within UNHCR and its operational partners, this could negatively impact the organization's ability to effectively engage with external stakeholders and mobilize resources.
+Sources:
+* "This evaluation examines UNHCR’s practice around data, including data collated/collected by operational partners when the data and information requirements are determined by UNHCR." (Context)
+* "For data to have strategic value and to be strategically used, UNHCR staff at all levels in the organization need to create and/or access quality data regarding persons of concern and response activities" (Introduction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no information directly related to my area of expertise and focus which is external engagement and resource mobilization Organizational Enabler. The evaluation focuses on UNHCR's practice around data collection and collation in four case studies of country/regional operations, specifically examining how operational data and program implementation, case management, monitoring and evaluation are managed by UNHCR and its implementing partners. Therefore, I am unable to provide any insights or learnings related to my specific area of expertise based on this context. {NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on KEQ 1, recommendations for improving data and information management in UNHCR's external engagement and resource mobilization efforts may be made after analyzing the four case studies of country/regional operations. (KEQ 1, para. 17)
+* The evaluation's two-pronged methodology includes a situational analysis of changes in the external environment, which may include an examination of how other UN agencies and organizations are positioning their data and resource mobilization strategies. This could provide insights for recommendations on how UNHCR can improve its own practices in this area. (4.3 Approach and methodology, para. 19)
+* The evaluation's focus on understanding UNHCR's current practices around data and information management in country operations and Rapid Response Programme (RRP) situations may lead to recommendations for improving how the organization collects, cleans, stores, manages, analyzes, disseminates, uses and coordinates data and information in order to better position UNHCR to carry out its mandate of international protection, humanitarian assistance and permanent solutions for persons of concern. (4.3 Approach and methodology, para. 18)
+* The evaluation's theory-based approach will generate recommendations to improve how the organization collates, collects, cleans, stores, manages, analyzes, disseminates, uses and coordinates data and information in order to better position UNHCR to carry out its mandate of international protection, humanitarian assistance and permanent solutions for persons of concern. (4.3 Approach and methodology, para. 18)
+{NONE}
+* The context does not contain any specific recommendations related to the area of expertise and focus, External engagement and resource mobilization Organizational Enabler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The evaluation focuses on UNHCR's practice around data, including data collected and/or collated by operational partners when the data and information requirements are determined by UNHCR (context).
+* The evaluation will examine how operational data and program implementation, case management, monitoring and evaluation are managed in four case studies of UNHCR country/regional operations (context).
+* The evaluation is expected to adhere to the 'Evaluation Quality Assurance' (EQA) guidance, which clarifies the quality requirements for UNHCR evaluation processes and products (context).
+* No specific findings or evidence were provided in relation to leadership and governance organizational enablers such as changes in management practices, technical approach, business processes, staffing allocation or capacity building.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, I cannot identify any specific issues or root causes related to leadership, governance, organizational enablers, management practices, technical approach, business processes, staffing allocation, or capacity building within UNHCR's data practices. The context primarily focuses on the evaluation of UNHCR's operational data and program implementation in four case studies: Colombia (Cucuta), Pakistan (Islamabad Head Office and Peshawar Field Office), and Zambia (Lusaka Head Office, Mantapala and Meheba settlements). The purpose is to analyze how UNHCR's operational data and program implementation are managed in these specific cases.
+However, the context does not provide information related to leadership, governance, or organizational enablers that would allow me to identify any root causes for potential issues within those areas of focus.
+{NONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, the main risks and difficulties that can be identified in relation to my specific area of expertise and focus are:
+1. Lack of clear guidance for leadership and governance: The context does not provide any information about UNHCR's leadership and governance practices related to data management, which could pose a risk to the evaluation as there may be inconsistencies or gaps in how operational partners collect and collate data for UNHCR.
+2. Limited scope of evaluation: The evaluation is limited to four case studies of UNHCR country/regional operations, which may not provide a comprehensive view of UNHCR's data management practices across all operations (KEQ 1). This limitation in the scope of the evaluation could pose a risk to the generalizability of the findings.
+3. Data privacy and protection: The evaluation is expected to adhere to the principles of impartiality, credibility, and utility, which include protecting sources and data (KEQ 2). Ensuring data privacy and protection is a critical aspect of leadership and governance, and any lapses in this area could pose significant risks to the organization and its stakeholders.
+4. Evaluation quality assurance: The evaluation is expected to adhere to the 'Evaluation Quality Assurance' (EQA) guidance (KEQ 2). Ensuring that the evaluation meets the required quality standards is essential for the credibility and utility of the findings, and any deviations from the EQA guidance could pose a risk to the evaluation's legitimacy.
+Sources:
+- "This evaluation examines UNHCR’s practice around data, including data collated/collected by operational partners when the data and information requirements are determined by UNHCR." (&lt;context&gt;)
+- "The evaluation will address the following headline questions. The analysis needed to answer them is likely to touch on other possible sub-questions and may be further refined during the evaluation inception phase." (&lt;context&gt;)
+- "KEQ 1 : Based on four case studies of UNHCR country/regional operations, how are operational data and program implementation, case management, monitoring and evaluation, collected and/or collated by UNHCR and/or implementing partners." (&lt;context&gt;)
+- "KEQ 2: To what extent do UNHCR’s data management practices, including those of its operational partners, uphold the principles of impartiality, credibility and utility, which in practice call for: protecting sources and data; systematically seeking informed consent; respecting dignity and diversity; minimizing risk, harm and burden upon those who are the subject of, or participating in the evaluation, while at the same time not compromising the integrity of the exercise." (&lt;context&gt;)
+- "The evaluation is also expected to adhere with the ‘Evaluation Quality Assurance’ (EQA) guidance, which clarifies the quality requirements expected for UNHCR evaluation processes and products." (&lt;context&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Based on the provided context, there is no direct information related to leadership and governance within UNHCR's organizational enablers. The focus of the evaluation described in the context is on examining UNHCR's practice around data collection and operational partners' implementation of data requirements determined by UNHCR. Therefore, I am unable to provide a specific answer to this question as it relates to my area of expertise and focus.
+However, there are some general observations that can be made from the context regarding potential areas for improvement in leadership and governance within UNHCR's organizational enablers:
+* The evaluation is focused on four case studies of UNHCR country/regional operations, which suggests that there may be variations in data collection practices across different regions. This could indicate a need for stronger leadership and governance to ensure consistency and quality in data management practices across all UNHCR operations. (p.250)
+* The evaluation is limited to examining UNHCR's practice around data, rather than broader data and information management practices by UNHCR as a lead agency in the Global Clusters. This suggests that there may be opportunities for improving leadership and governance in UNHCR's role as a lead agency in global clusters. (p.250)
+* The evaluation highlights the importance of accountability and learning from results, which are key elements of effective leadership and governance. Specifically, the evaluation emphasizes the need to assess and report on implementation and results, request management to formally respond to evaluations, describe and explain results to generate insights and pointers for learning, and improve future strategies in similar contexts. (p.250)
+Therefore, while there is no direct information related to leadership and governance within UNHCR's organizational enablers in the provided context, there are some potential areas for improvement that could be explored further in this regard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Based on the provided context, there are no specific recommendations made directly related to my area of expertise and focus as a public program evaluation expert for UNHCR's Leadership and governance Organizational Enabler.
+* The evaluation focuses on examining UNHCR’s practice around data, including data collected by operational partners when the data and information requirements are determined by UNHCR (4.1).
+* The key evaluation questions (KEQs) do not include any specific inquiries related to leadership, governance, or organizational enablers (4.2).
+* Data and information sources to be reviewed include UNHCR’s Results Framework and Global Strategic Priorities, but these documents are not directly linked to my area of expertise (4.5).</t>
   </si>
 </sst>
 </file>
@@ -661,7 +2340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -700,10 +2379,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -714,10 +2393,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -728,10 +2407,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -742,10 +2421,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -756,10 +2435,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -770,10 +2449,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -784,10 +2463,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -798,10 +2477,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -812,10 +2491,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -826,10 +2505,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -840,10 +2519,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -854,10 +2533,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -868,10 +2547,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -882,10 +2561,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -896,10 +2575,1466 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>150</v>
+      </c>
+      <c r="D105" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>152</v>
+      </c>
+      <c r="D114" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
